--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="144">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -227,15 +227,6 @@
     <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 상세</t>
   </si>
   <si>
-    <t>회수 준비 시간(분)</t>
-  </si>
-  <si>
-    <t>PREPARATION_MINUTE</t>
-  </si>
-  <si>
-    <t>대여 상품 반납일시로부터 다음 대여까지 걸리는 시간</t>
-  </si>
-  <si>
     <t>HCP_RENTABLE_PRODUCT_STOCK_INFO</t>
   </si>
   <si>
@@ -402,6 +393,15 @@
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
+  </si>
+  <si>
+    <t>다음 준비 예정일</t>
+  </si>
+  <si>
+    <t>NEXT_READY_DATETIME</t>
+  </si>
+  <si>
+    <t>다음 준비 예정일(예약 후 상품의 다음 고객의 대여까지 준비가 완료되는 일시, 이 값이 null 이라면 다음 예약이 불가)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
@@ -809,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H102"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1288,79 +1288,79 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1369,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1377,16 +1377,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1395,24 +1395,24 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1421,12 +1421,12 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -1438,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1447,12 +1447,12 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
@@ -1464,21 +1464,21 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
         <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -1490,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1519,7 +1519,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1530,45 +1530,45 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1577,86 +1577,86 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1665,7 +1665,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1673,16 +1673,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1691,24 +1691,24 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -1725,10 +1725,10 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1737,39 +1737,39 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1795,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1803,16 +1803,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -1821,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
@@ -1829,16 +1829,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -1847,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -1855,10 +1855,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1881,16 +1881,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1899,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -1916,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -1951,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -1959,19 +1959,19 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -1994,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2011,16 +2011,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2029,112 +2029,112 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2143,24 +2143,24 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2169,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
@@ -2177,16 +2177,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2195,24 +2195,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2221,112 +2221,112 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2335,24 +2335,24 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2361,24 +2361,24 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2387,27 +2387,27 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
         <v>129</v>
       </c>
-      <c r="C69" t="s">
-        <v>76</v>
-      </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -2418,81 +2418,81 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2501,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -2509,16 +2509,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2535,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2553,112 +2553,112 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -2667,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2675,16 +2675,16 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -2693,24 +2693,24 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2719,24 +2719,24 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2745,86 +2745,86 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>12</v>
       </c>
-      <c r="B86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -2833,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -2841,16 +2841,16 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -2859,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -2867,16 +2867,16 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -2885,24 +2885,24 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -2911,86 +2911,86 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" t="s">
-        <v>141</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -2999,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -3007,16 +3007,16 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3025,24 +3025,24 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3051,24 +3051,24 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3077,37 +3077,11 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -89,6 +89,9 @@
     <t>HCP_RENTABLE_PRODUCT_INFO_UID</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>HCP_RENTABLE_PRODUCT_INFO 행 고유키</t>
   </si>
   <si>
@@ -188,9 +191,6 @@
     <t>FRONT_IMAGE_UID</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>HCP_RENTABLE_PRODUCT_IMAGE 행 고유키</t>
   </si>
   <si>
@@ -269,13 +269,13 @@
     <t>제품 대여(손님에게 제공)가 가능한 최초 일시</t>
   </si>
   <si>
-    <t>제품 최종 회수 일시</t>
-  </si>
-  <si>
-    <t>STORAGE_DATETIME</t>
-  </si>
-  <si>
-    <t>제품을 최종 회수하는 일시</t>
+    <t>제품 대여 마지막 일시</t>
+  </si>
+  <si>
+    <t>LAST_RENTABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>제품 대여 마지막 일시 (이때가 대여 마지막 날)</t>
   </si>
   <si>
     <t>예약 가능 설정</t>
@@ -937,13 +937,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -951,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -977,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1003,16 +1003,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1029,16 +1029,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1055,16 +1055,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -1081,16 +1081,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1099,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1107,16 +1107,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1125,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1151,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1159,16 +1159,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1177,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1185,10 +1185,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1197,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1415,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -1467,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1490,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1516,10 +1516,10 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -1711,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -1728,7 +1728,7 @@
         <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1737,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -1751,16 +1751,16 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1795,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
@@ -1890,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1971,7 +1971,7 @@
         <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -2404,10 +2404,10 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -2544,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2573,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -2719,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
@@ -2876,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="172">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -441,6 +441,90 @@
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_UID</t>
+  </si>
+  <si>
+    <t>결재 타입</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE</t>
+  </si>
+  <si>
+    <t>결재 타입(1 : 무통장 입금, 2 : 실시간 계좌이체, 3 : 토스 페이)</t>
+  </si>
+  <si>
+    <t>결재 금액</t>
+  </si>
+  <si>
+    <t>PAYMENT_AMOUNT</t>
+  </si>
+  <si>
+    <t>결재 완료 일시</t>
+  </si>
+  <si>
+    <t>PAYMENT_COMPLETE_DATETIME</t>
+  </si>
+  <si>
+    <t>결재가 완료 및 확인 된 일시(Null 이라면 아직 완료 처리가 아님)</t>
+  </si>
+  <si>
+    <t>결재 실패 여부</t>
+  </si>
+  <si>
+    <t>PAYMENT_FAILED</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_REAL_TIME_TRANSFERS</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_REAL_TIME_TRANSFERS_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_UID2</t>
+  </si>
+  <si>
+    <t>입금 은행명</t>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>입금 은행 계좌번호</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>입금자명</t>
+  </si>
+  <si>
+    <t>DEPOSITOR_NAME</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_VIRTUAL_ACCOUNT_PAY</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_VIRTUAL_ACCOUNT_PAY_UID</t>
+  </si>
+  <si>
+    <t>입금 은행 가상 계좌번호</t>
+  </si>
+  <si>
+    <t>VIRTUAL_ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_TOSS_PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -809,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H143"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3085,6 +3169,904 @@
         <v>12</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>161</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>164</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" t="s">
+        <v>160</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>164</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" t="s">
+        <v>166</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>160</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>164</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="188">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -185,6 +185,15 @@
     <t>고객에게 보일 상품 소개</t>
   </si>
   <si>
+    <t>예약 결재 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT 행 고유키(결재되지 않았다면 null)</t>
+  </si>
+  <si>
     <t>상품 대표 이미지 테이블 고유번호</t>
   </si>
   <si>
@@ -347,6 +356,9 @@
     <t>RESERVATION_UNIT_PRICE</t>
   </si>
   <si>
+    <t>DECIMAL(15, 2) UNSIGNED</t>
+  </si>
+  <si>
     <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>
   </si>
   <si>
@@ -443,10 +455,10 @@
     <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE</t>
   </si>
   <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_UID</t>
+    <t>HCP_PAYMENT</t>
+  </si>
+  <si>
+    <t>HCP_HCP_PAYMENT_UID</t>
   </si>
   <si>
     <t>결재 타입</t>
@@ -479,13 +491,13 @@
     <t>PAYMENT_FAILED</t>
   </si>
   <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_REAL_TIME_TRANSFERS</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_REAL_TIME_TRANSFERS_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_UID2</t>
+    <t>HCP_PAYMENT_REAL_TIME_TRANSFERS</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_REAL_TIME_TRANSFERS_UID</t>
+  </si>
+  <si>
+    <t>결재 정보 고유키</t>
   </si>
   <si>
     <t>입금 은행명</t>
@@ -512,10 +524,10 @@
     <t>DEPOSITOR_NAME</t>
   </si>
   <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_VIRTUAL_ACCOUNT_PAY</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_VIRTUAL_ACCOUNT_PAY_UID</t>
+    <t>HCP_PAYMENT_VIRTUAL_ACCOUNT_PAY</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_VIRTUAL_ACCOUNT_PAY_UID</t>
   </si>
   <si>
     <t>입금 은행 가상 계좌번호</t>
@@ -524,7 +536,43 @@
     <t>VIRTUAL_ACCOUNT_NUMBER</t>
   </si>
   <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_TOSS_PAYMENT</t>
+    <t>HCP_PAYMENT_TOSS_PAYMENT</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_TOSS_PAYMENT_UID</t>
+  </si>
+  <si>
+    <t>Toss 거래 아이디</t>
+  </si>
+  <si>
+    <t>TOSS_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_REFUND</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_REFUND_UID</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT 행 고유키</t>
+  </si>
+  <si>
+    <t>환불 금액</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>환불 완료 일시</t>
+  </si>
+  <si>
+    <t>REFUND_DATETIME</t>
+  </si>
+  <si>
+    <t>환불 완료한 일시</t>
   </si>
 </sst>
 </file>
@@ -893,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H150"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1292,7 +1340,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -1304,16 +1352,16 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
         <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1321,25 +1369,25 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -1347,16 +1395,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1372,79 +1420,79 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1453,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1461,16 +1509,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1479,38 +1527,38 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -1522,21 +1570,21 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
         <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
@@ -1548,21 +1596,21 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -1574,10 +1622,10 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -1603,7 +1651,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1614,45 +1662,45 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1661,86 +1709,86 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>12</v>
       </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1749,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1757,16 +1805,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1775,33 +1823,33 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1809,10 +1857,10 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1827,33 +1875,33 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -1861,16 +1909,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1879,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1887,16 +1935,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -1905,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
@@ -1913,25 +1961,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
         <v>67</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -1939,16 +1987,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>70</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>67</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -1965,16 +2013,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1983,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -2000,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2026,16 +2074,16 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>105</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -2043,19 +2091,19 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>108</v>
       </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>105</v>
-      </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -2078,10 +2126,10 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2095,16 +2143,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2113,86 +2161,86 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>12</v>
       </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -2201,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -2209,16 +2257,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2227,24 +2275,24 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2253,24 +2301,24 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2305,86 +2353,86 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>12</v>
       </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2393,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -2401,16 +2449,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2419,24 +2467,24 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2445,7 +2493,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2453,10 +2501,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2471,112 +2519,112 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>12</v>
       </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2585,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -2593,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2611,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -2619,16 +2667,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2637,112 +2685,112 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -2751,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -2759,16 +2807,16 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -2777,24 +2825,24 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2803,24 +2851,24 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2829,86 +2877,86 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>12</v>
       </c>
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -2917,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -2925,16 +2973,16 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -2943,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -2951,16 +2999,16 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -2969,24 +3017,24 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -2995,86 +3043,86 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -3083,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -3091,16 +3139,16 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3109,24 +3157,24 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3135,24 +3183,24 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3161,86 +3209,86 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>12</v>
       </c>
+      <c r="B102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -3249,7 +3297,7 @@
         <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -3257,16 +3305,16 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -3275,24 +3323,24 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3301,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -3309,16 +3357,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3327,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
@@ -3335,16 +3383,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3353,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
@@ -3361,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -3379,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
@@ -3387,10 +3435,10 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -3405,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
@@ -3415,7 +3463,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
@@ -3452,7 +3500,7 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -3527,10 +3575,10 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -3553,16 +3601,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3571,7 +3619,7 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
@@ -3579,16 +3627,16 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3597,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
@@ -3605,17 +3653,17 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
         <v>165</v>
       </c>
-      <c r="C122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>161</v>
-      </c>
       <c r="F122" t="s">
         <v>14</v>
       </c>
@@ -3623,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
@@ -3633,7 +3681,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125">
@@ -3670,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -3745,10 +3793,10 @@
         <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -3771,16 +3819,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3789,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
@@ -3797,16 +3845,16 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C131" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3815,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
@@ -3823,17 +3871,17 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
         <v>165</v>
       </c>
-      <c r="C132" t="s">
-        <v>166</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>161</v>
-      </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
@@ -3851,7 +3899,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135">
@@ -3888,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -3963,10 +4011,10 @@
         <v>23</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -3989,16 +4037,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4007,63 +4055,203 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
         <v>12</v>
       </c>
-      <c r="B141" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" t="s">
-        <v>170</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>164</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" t="s">
-        <v>165</v>
-      </c>
-      <c r="C142" t="s">
-        <v>166</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" t="s">
-        <v>161</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>181</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" t="s">
+        <v>184</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>115</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>185</v>
+      </c>
+      <c r="C149" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="188">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -185,15 +185,6 @@
     <t>고객에게 보일 상품 소개</t>
   </si>
   <si>
-    <t>예약 결재 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT 행 고유키(결재되지 않았다면 null)</t>
-  </si>
-  <si>
     <t>상품 대표 이미지 테이블 고유번호</t>
   </si>
   <si>
@@ -236,6 +227,15 @@
     <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 상세</t>
   </si>
   <si>
+    <t>결재 완료 일시</t>
+  </si>
+  <si>
+    <t>PAYMENT_COMPLETE_DATETIME</t>
+  </si>
+  <si>
+    <t>결재가 완료 처리된 일시(null 이라면 미결재 상태)</t>
+  </si>
+  <si>
     <t>HCP_RENTABLE_PRODUCT_STOCK_INFO</t>
   </si>
   <si>
@@ -476,12 +476,6 @@
     <t>PAYMENT_AMOUNT</t>
   </si>
   <si>
-    <t>결재 완료 일시</t>
-  </si>
-  <si>
-    <t>PAYMENT_COMPLETE_DATETIME</t>
-  </si>
-  <si>
     <t>결재가 완료 및 확인 된 일시(Null 이라면 아직 완료 처리가 아님)</t>
   </si>
   <si>
@@ -573,6 +567,12 @@
   </si>
   <si>
     <t>환불 완료한 일시</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_INFO</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 예약 결재 정보 고유키</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H158"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1340,7 +1340,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -1352,16 +1352,16 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1369,16 +1369,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1387,7 +1387,7 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -1395,16 +1395,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1430,10 +1430,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -1886,7 +1886,7 @@
         <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -1901,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -1961,25 +1961,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
         <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -1987,25 +1987,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -2013,16 +2013,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2031,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
@@ -3409,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -3427,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
@@ -3435,10 +3435,10 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -3453,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
@@ -3463,7 +3463,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
@@ -3500,7 +3500,7 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -3575,7 +3575,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
         <v>149</v>
@@ -3601,17 +3601,17 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
         <v>163</v>
       </c>
-      <c r="C120" t="s">
-        <v>164</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>165</v>
-      </c>
       <c r="F120" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
@@ -3627,17 +3627,17 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
         <v>166</v>
       </c>
-      <c r="C121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>168</v>
-      </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
@@ -3653,16 +3653,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -3671,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
@@ -3681,7 +3681,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
@@ -3718,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -3793,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
         <v>149</v>
@@ -3819,17 +3819,17 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
         <v>163</v>
       </c>
-      <c r="C130" t="s">
-        <v>164</v>
-      </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
-        <v>165</v>
-      </c>
       <c r="F130" t="s">
         <v>14</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
@@ -3845,16 +3845,16 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3863,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
@@ -3871,16 +3871,16 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3889,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
@@ -3899,7 +3899,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135">
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -4011,7 +4011,7 @@
         <v>23</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C139" t="s">
         <v>149</v>
@@ -4037,17 +4037,17 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
         <v>177</v>
       </c>
-      <c r="C140" t="s">
-        <v>178</v>
-      </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>179</v>
-      </c>
       <c r="F140" t="s">
         <v>14</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141">
@@ -4065,7 +4065,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143">
@@ -4102,7 +4102,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4177,7 +4177,7 @@
         <v>23</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C147" t="s">
         <v>149</v>
@@ -4195,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148">
@@ -4203,10 +4203,10 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -4221,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149">
@@ -4229,10 +4229,10 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C149" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -4247,11 +4247,177 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>149</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="198">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -362,6 +362,18 @@
     <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>
   </si>
   <si>
+    <t>예약 단가 통화 코드</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_PRICE_CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+  </si>
+  <si>
+    <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO</t>
   </si>
   <si>
@@ -446,7 +458,7 @@
     <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY</t>
   </si>
   <si>
-    <t>PARENT_CATEGORY</t>
+    <t>PARENT_CATEGORY_UID</t>
   </si>
   <si>
     <t>부모 카테고리의 고유키</t>
@@ -476,6 +488,15 @@
     <t>PAYMENT_AMOUNT</t>
   </si>
   <si>
+    <t>결재 금액 통화 코드</t>
+  </si>
+  <si>
+    <t>PAYMENT_CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>결재 금액 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
     <t>결재가 완료 및 확인 된 일시(Null 이라면 아직 완료 처리가 아님)</t>
   </si>
   <si>
@@ -558,6 +579,15 @@
   </si>
   <si>
     <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>환불 금액 통화 코드</t>
+  </si>
+  <si>
+    <t>CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>환불 금액 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
   </si>
   <si>
     <t>환불 완료 일시</t>
@@ -941,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H161"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2169,16 +2199,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2187,86 +2217,86 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>12</v>
       </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2275,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -2283,16 +2313,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2301,24 +2331,24 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2327,24 +2357,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2379,86 +2409,86 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>12</v>
       </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2467,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -2475,16 +2505,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2493,24 +2523,24 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2519,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -2527,10 +2557,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2545,112 +2575,112 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>12</v>
       </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2659,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -2667,16 +2697,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2685,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2693,16 +2723,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2711,112 +2741,112 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -2825,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -2833,16 +2863,16 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2851,24 +2881,24 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2877,24 +2907,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2903,86 +2933,86 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>12</v>
       </c>
+      <c r="B87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -2991,7 +3021,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -2999,16 +3029,16 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3017,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -3025,16 +3055,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3043,24 +3073,24 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3069,86 +3099,86 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3157,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -3165,16 +3195,16 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3183,24 +3213,24 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3209,24 +3239,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3235,86 +3265,86 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>12</v>
       </c>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -3323,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -3331,16 +3361,16 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3349,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -3357,16 +3387,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3375,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -3383,16 +3413,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3401,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
@@ -3409,25 +3439,25 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G111" t="s">
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
@@ -3435,16 +3465,16 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -3453,112 +3483,112 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>12</v>
       </c>
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H117" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -3567,24 +3597,24 @@
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3593,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
@@ -3601,16 +3631,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3619,24 +3649,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3645,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -3653,130 +3683,130 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>170</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
         <v>168</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>163</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>12</v>
       </c>
+      <c r="B123" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>173</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" t="s">
+        <v>175</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" t="s">
-        <v>7</v>
-      </c>
-      <c r="H125" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -3785,24 +3815,24 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3811,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -3819,16 +3849,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3837,24 +3867,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3863,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -3871,130 +3901,130 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C132" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
         <v>168</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>163</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>12</v>
       </c>
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" t="s">
+        <v>179</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>173</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" t="s">
-        <v>7</v>
-      </c>
-      <c r="H135" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" t="s">
-        <v>174</v>
-      </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -4003,24 +4033,24 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4029,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -4037,16 +4067,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4055,112 +4085,112 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>178</v>
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>184</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>6</v>
-      </c>
-      <c r="G143" t="s">
-        <v>7</v>
-      </c>
-      <c r="H143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>179</v>
-      </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H145" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -4169,24 +4199,24 @@
         <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4195,7 +4225,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -4203,16 +4233,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4221,158 +4251,158 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
         <v>12</v>
       </c>
+      <c r="B150" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>115</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G152" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>179</v>
-      </c>
-      <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" t="s">
-        <v>18</v>
-      </c>
-      <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -4387,24 +4417,24 @@
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4413,11 +4443,89 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="201">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
+    <t>업데이터 버전 시퀀스</t>
+  </si>
+  <si>
+    <t>UPDATE_VERSION_SEQ</t>
+  </si>
+  <si>
+    <t>업데이트 버전 시퀀스 (0에서 시작해서 정보 업데이트가 될 때마다 1 씩 올라갑니다. 예약 프로세스 진행중 버전 정보가 맞지 않으면 진행이 불가능하게 할 것.)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO</t>
@@ -971,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2250,79 +2259,79 @@
       <c r="A54" t="s">
         <v>12</v>
       </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2331,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -2339,16 +2348,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2357,24 +2366,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2383,33 +2392,33 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>127</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -2417,104 +2426,104 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
         <v>129</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>130</v>
       </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
         <v>131</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>12</v>
       </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2523,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -2531,16 +2540,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2549,24 +2558,24 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2575,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -2583,10 +2592,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2601,112 +2610,112 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>12</v>
       </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2715,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2723,16 +2732,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2741,7 +2750,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -2749,16 +2758,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2767,112 +2776,112 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
         <v>143</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2881,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -2889,16 +2898,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2907,24 +2916,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2933,24 +2942,24 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -2959,86 +2968,86 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3047,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -3055,16 +3064,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3073,7 +3082,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -3081,16 +3090,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3099,24 +3108,24 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -3125,86 +3134,86 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3213,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -3221,16 +3230,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3239,24 +3248,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3265,24 +3274,24 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -3291,86 +3300,86 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3379,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -3387,16 +3396,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3405,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -3413,16 +3422,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3431,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -3448,7 +3457,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -3457,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
@@ -3465,25 +3474,25 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
         <v>160</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>119</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="113">
@@ -3491,25 +3500,25 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
@@ -3517,104 +3526,104 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
         <v>12</v>
       </c>
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3623,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -3631,16 +3640,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3649,24 +3658,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3675,24 +3684,24 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -3701,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -3744,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -3760,79 +3769,79 @@
       <c r="A125" t="s">
         <v>12</v>
       </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>173</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3841,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
@@ -3849,16 +3858,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3867,24 +3876,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3893,24 +3902,24 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3919,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -3927,10 +3936,10 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -3953,16 +3962,16 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -3978,79 +3987,79 @@
       <c r="A135" t="s">
         <v>12</v>
       </c>
+      <c r="B135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>173</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" t="s">
-        <v>7</v>
-      </c>
-      <c r="H137" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4059,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -4067,16 +4076,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4085,24 +4094,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4111,24 +4120,24 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -4137,86 +4146,86 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
+      <c r="B143" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>187</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4225,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -4233,16 +4242,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4251,24 +4260,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4277,24 +4286,24 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -4303,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151">
@@ -4311,25 +4320,25 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C151" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>115</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
         <v>191</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>119</v>
-      </c>
-      <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="152">
@@ -4346,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -4362,79 +4371,79 @@
       <c r="A153" t="s">
         <v>12</v>
       </c>
+      <c r="B153" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" t="s">
+        <v>197</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" t="s">
-        <v>7</v>
-      </c>
-      <c r="H155" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4443,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
@@ -4451,16 +4460,16 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4469,24 +4478,24 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -4495,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -4503,10 +4512,10 @@
         <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -4521,11 +4530,37 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" t="s">
+        <v>156</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -404,7 +404,7 @@
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
-    <t>예약 상태 코드(1 : 예약 신청, 2 : 결재 완료, 3 : 예약 승인, 4 : 예약 거부, 5 : 예약 취소 신청, 6 : 예약 취소 승인, 7 : 예약 취소 거부, 8 : 예약 취소 후 환불 완료, 9: 조기반납신청, 10:조기반납 확인)</t>
+    <t>예약 상태 코드(1 : 예약 신청, 2 : 결재 완료, 3 : 예약 승인, 4 : 예약 거부, 5 : 예약 취소 신청, 6 : 예약 취소 승인, 7 : 예약 취소 거부, 8 : 예약 취소 후 환불 완료, 9: 조기반납신고, 10:조기반납 확인,11:조기반납 신고취소)</t>
   </si>
   <si>
     <t>상태 변경 상세</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="200">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -227,283 +227,280 @@
     <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 상세</t>
   </si>
   <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO_UID</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 재고 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_CATEGORY_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY 행 고유키</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 개별 설명</t>
+  </si>
+  <si>
+    <t>PRODUCT_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(3000)</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 재고 이미지 테이블 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_IMAGE_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE 행 고유키</t>
+  </si>
+  <si>
+    <t>제품 대여 가능 최초 일시</t>
+  </si>
+  <si>
+    <t>FIRST_RENTABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>제품 대여(손님에게 제공)가 가능한 최초 일시</t>
+  </si>
+  <si>
+    <t>제품 대여 마지막 일시</t>
+  </si>
+  <si>
+    <t>LAST_RENTABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>제품 대여 마지막 일시 (이때가 대여 마지막 날)</t>
+  </si>
+  <si>
+    <t>예약 가능 설정</t>
+  </si>
+  <si>
+    <t>NOW_RESERVABLE</t>
+  </si>
+  <si>
+    <t>재고, 상품 상태와 상관 없이 현 시점 예약 가능한지에 대한 관리자의 설정</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_INFO</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_CATEGORY 행 고유키</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 이미지 고유키</t>
+  </si>
+  <si>
+    <t>고객에게 보일 상품명</t>
+  </si>
+  <si>
+    <t>상품 예약 가능 최초 일시</t>
+  </si>
+  <si>
+    <t>FIRST_RESERVABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>상품 예약이 가능한 최초 일시(콘서트 티켓 예매와 같은 서비스를 가정, 예약 러시 처리가 필요)</t>
+  </si>
+  <si>
+    <t>단위 예약 시간(분)</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_MINUTE</t>
+  </si>
+  <si>
+    <t>예약 추가 할 수 있는 최소 시간 단위 (분)</t>
+  </si>
+  <si>
+    <t>최소 예약 횟수</t>
+  </si>
+  <si>
+    <t>MINIMUM_RESERVATION_UNIT_COUNT</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED</t>
+  </si>
+  <si>
+    <t>단위 예약 시간을 대여일 기준에서 최소 몇번 추가 해야 하는지</t>
+  </si>
+  <si>
+    <t>최대 예약 횟수</t>
+  </si>
+  <si>
+    <t>MAXIMUM_RESERVATION_UNIT_COUNT</t>
+  </si>
+  <si>
+    <t>단위 예약 시간을 대여일 기준에서 최대 몇번 추가 가능한지 (Null 이라면 제한 없음)</t>
+  </si>
+  <si>
+    <t>예약 단가</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_PRICE</t>
+  </si>
+  <si>
+    <t>DECIMAL(15, 2) UNSIGNED</t>
+  </si>
+  <si>
+    <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>
+  </si>
+  <si>
+    <t>예약 단가 통화 코드</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_PRICE_CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+  </si>
+  <si>
+    <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
+    <t>업데이터 버전 시퀀스</t>
+  </si>
+  <si>
+    <t>UPDATE_VERSION_SEQ</t>
+  </si>
+  <si>
+    <t>업데이트 버전 시퀀스 (0에서 시작해서 정보 업데이트가 될 때마다 1 씩 올라갑니다. 예약 프로세스 진행중 버전 정보가 맞지 않으면 진행이 불가능하게 할 것.)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO_UID</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 예약 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO 행 고유키</t>
+  </si>
+  <si>
+    <t>예약 상태 코드</t>
+  </si>
+  <si>
+    <t>STATE_CODE</t>
+  </si>
+  <si>
+    <t>TINYINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>예약 상태 코드(1 : 예약 신청, 2 : 결재 완료, 3 : 예약 승인, 4 : 예약 거부, 5 : 예약 취소 신청, 6 : 예약 취소 승인, 7 : 예약 취소 거부, 8 : 예약 취소 후 환불 완료, 9: 조기반납신고, 10:조기반납 확인,11:조기반납 신고취소)</t>
+  </si>
+  <si>
+    <t>상태 변경 상세</t>
+  </si>
+  <si>
+    <t>STATE_CHANGE_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(600)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO_UID</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 재고 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
+  </si>
+  <si>
+    <t>다음 준비 예정일</t>
+  </si>
+  <si>
+    <t>NEXT_READY_DATETIME</t>
+  </si>
+  <si>
+    <t>다음 준비 예정일(예약 후 상품의 다음 고객의 대여까지 준비가 완료되는 일시, 이 값이 null 이라면 다음 예약이 불가)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
+  </si>
+  <si>
+    <t>카테고리 이름</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>부모 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>PARENT_CATETORY_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_IMAGE</t>
+  </si>
+  <si>
+    <t>상품 이미지 Full URL</t>
+  </si>
+  <si>
+    <t>IMAGE_FULL_URL</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY</t>
+  </si>
+  <si>
+    <t>PARENT_CATEGORY_UID</t>
+  </si>
+  <si>
+    <t>부모 카테고리의 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT</t>
+  </si>
+  <si>
+    <t>HCP_HCP_PAYMENT_UID</t>
+  </si>
+  <si>
+    <t>결재 타입</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE</t>
+  </si>
+  <si>
+    <t>결재 타입(1 : 무통장 입금, 2 : 실시간 계좌이체, 3 : 토스 페이)</t>
+  </si>
+  <si>
+    <t>결재 금액</t>
+  </si>
+  <si>
+    <t>PAYMENT_AMOUNT</t>
+  </si>
+  <si>
+    <t>결재 금액 통화 코드</t>
+  </si>
+  <si>
+    <t>PAYMENT_CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>결재 금액 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
     <t>결재 완료 일시</t>
   </si>
   <si>
     <t>PAYMENT_COMPLETE_DATETIME</t>
-  </si>
-  <si>
-    <t>결재가 완료 처리된 일시(null 이라면 미결재 상태)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO_UID</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 재고 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_CATEGORY_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY 행 고유키</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 개별 설명</t>
-  </si>
-  <si>
-    <t>PRODUCT_DESC</t>
-  </si>
-  <si>
-    <t>VARCHAR(3000)</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 재고 이미지 테이블 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_IMAGE_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE 행 고유키</t>
-  </si>
-  <si>
-    <t>제품 대여 가능 최초 일시</t>
-  </si>
-  <si>
-    <t>FIRST_RENTABLE_DATETIME</t>
-  </si>
-  <si>
-    <t>제품 대여(손님에게 제공)가 가능한 최초 일시</t>
-  </si>
-  <si>
-    <t>제품 대여 마지막 일시</t>
-  </si>
-  <si>
-    <t>LAST_RENTABLE_DATETIME</t>
-  </si>
-  <si>
-    <t>제품 대여 마지막 일시 (이때가 대여 마지막 날)</t>
-  </si>
-  <si>
-    <t>예약 가능 설정</t>
-  </si>
-  <si>
-    <t>NOW_RESERVABLE</t>
-  </si>
-  <si>
-    <t>재고, 상품 상태와 상관 없이 현 시점 예약 가능한지에 대한 관리자의 설정</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_INFO</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_CATEGORY 행 고유키</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 이미지 고유키</t>
-  </si>
-  <si>
-    <t>고객에게 보일 상품명</t>
-  </si>
-  <si>
-    <t>상품 예약 가능 최초 일시</t>
-  </si>
-  <si>
-    <t>FIRST_RESERVABLE_DATETIME</t>
-  </si>
-  <si>
-    <t>상품 예약이 가능한 최초 일시(콘서트 티켓 예매와 같은 서비스를 가정, 예약 러시 처리가 필요)</t>
-  </si>
-  <si>
-    <t>단위 예약 시간(분)</t>
-  </si>
-  <si>
-    <t>RESERVATION_UNIT_MINUTE</t>
-  </si>
-  <si>
-    <t>예약 추가 할 수 있는 최소 시간 단위 (분)</t>
-  </si>
-  <si>
-    <t>최소 예약 횟수</t>
-  </si>
-  <si>
-    <t>MINIMUM_RESERVATION_UNIT_COUNT</t>
-  </si>
-  <si>
-    <t>INT UNSIGNED</t>
-  </si>
-  <si>
-    <t>단위 예약 시간을 대여일 기준에서 최소 몇번 추가 해야 하는지</t>
-  </si>
-  <si>
-    <t>최대 예약 횟수</t>
-  </si>
-  <si>
-    <t>MAXIMUM_RESERVATION_UNIT_COUNT</t>
-  </si>
-  <si>
-    <t>단위 예약 시간을 대여일 기준에서 최대 몇번 추가 가능한지 (Null 이라면 제한 없음)</t>
-  </si>
-  <si>
-    <t>예약 단가</t>
-  </si>
-  <si>
-    <t>RESERVATION_UNIT_PRICE</t>
-  </si>
-  <si>
-    <t>DECIMAL(15, 2) UNSIGNED</t>
-  </si>
-  <si>
-    <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>
-  </si>
-  <si>
-    <t>예약 단가 통화 코드</t>
-  </si>
-  <si>
-    <t>RESERVATION_UNIT_PRICE_CURRENCY_CODE</t>
-  </si>
-  <si>
-    <t>CHAR(3)</t>
-  </si>
-  <si>
-    <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
-  </si>
-  <si>
-    <t>업데이터 버전 시퀀스</t>
-  </si>
-  <si>
-    <t>UPDATE_VERSION_SEQ</t>
-  </si>
-  <si>
-    <t>업데이트 버전 시퀀스 (0에서 시작해서 정보 업데이트가 될 때마다 1 씩 올라갑니다. 예약 프로세스 진행중 버전 정보가 맞지 않으면 진행이 불가능하게 할 것.)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO_UID</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 예약 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO 행 고유키</t>
-  </si>
-  <si>
-    <t>예약 상태 코드</t>
-  </si>
-  <si>
-    <t>STATE_CODE</t>
-  </si>
-  <si>
-    <t>TINYINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>예약 상태 코드(1 : 예약 신청, 2 : 결재 완료, 3 : 예약 승인, 4 : 예약 거부, 5 : 예약 취소 신청, 6 : 예약 취소 승인, 7 : 예약 취소 거부, 8 : 예약 취소 후 환불 완료, 9: 조기반납신고, 10:조기반납 확인,11:조기반납 신고취소)</t>
-  </si>
-  <si>
-    <t>상태 변경 상세</t>
-  </si>
-  <si>
-    <t>STATE_CHANGE_DESC</t>
-  </si>
-  <si>
-    <t>VARCHAR(600)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO_UID</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 재고 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
-  </si>
-  <si>
-    <t>다음 준비 예정일</t>
-  </si>
-  <si>
-    <t>NEXT_READY_DATETIME</t>
-  </si>
-  <si>
-    <t>다음 준비 예정일(예약 후 상품의 다음 고객의 대여까지 준비가 완료되는 일시, 이 값이 null 이라면 다음 예약이 불가)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
-  </si>
-  <si>
-    <t>카테고리 이름</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME</t>
-  </si>
-  <si>
-    <t>부모 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>PARENT_CATETORY_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_IMAGE</t>
-  </si>
-  <si>
-    <t>상품 이미지 Full URL</t>
-  </si>
-  <si>
-    <t>IMAGE_FULL_URL</t>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY</t>
-  </si>
-  <si>
-    <t>PARENT_CATEGORY_UID</t>
-  </si>
-  <si>
-    <t>부모 카테고리의 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT</t>
-  </si>
-  <si>
-    <t>HCP_HCP_PAYMENT_UID</t>
-  </si>
-  <si>
-    <t>결재 타입</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE</t>
-  </si>
-  <si>
-    <t>결재 타입(1 : 무통장 입금, 2 : 실시간 계좌이체, 3 : 토스 페이)</t>
-  </si>
-  <si>
-    <t>결재 금액</t>
-  </si>
-  <si>
-    <t>PAYMENT_AMOUNT</t>
-  </si>
-  <si>
-    <t>결재 금액 통화 코드</t>
-  </si>
-  <si>
-    <t>PAYMENT_CURRENCY_CODE</t>
-  </si>
-  <si>
-    <t>결재 금액 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
   </si>
   <si>
     <t>결재가 완료 및 확인 된 일시(Null 이라면 아직 완료 처리가 아님)</t>
@@ -980,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H161"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1459,79 +1456,79 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1540,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1548,16 +1545,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1566,38 +1563,38 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -1609,21 +1606,21 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
@@ -1635,21 +1632,21 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
         <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -1661,10 +1658,10 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -1690,7 +1687,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1701,45 +1698,45 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1748,86 +1745,86 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1836,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1844,16 +1841,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1862,33 +1859,33 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -1896,10 +1893,10 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1914,33 +1911,33 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -1948,16 +1945,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1966,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
@@ -1974,16 +1971,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -1992,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
@@ -2000,16 +1997,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -2018,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -2026,10 +2023,10 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2044,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -2052,16 +2049,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2070,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -2087,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2113,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2122,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -2130,19 +2127,19 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -2165,16 +2162,16 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -2182,16 +2179,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2200,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -2208,16 +2205,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2226,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
@@ -2234,16 +2231,16 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -2252,86 +2249,86 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2340,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -2348,16 +2345,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2366,24 +2363,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2392,24 +2389,24 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2418,7 +2415,7 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -2426,104 +2423,104 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
         <v>129</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2532,7 +2529,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -2540,16 +2537,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2558,24 +2555,24 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2584,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -2592,10 +2589,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2610,112 +2607,112 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2724,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2732,16 +2729,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2750,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -2758,16 +2755,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2776,112 +2773,112 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
         <v>143</v>
       </c>
-      <c r="C79" t="s">
-        <v>144</v>
-      </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2890,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -2898,16 +2895,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2916,24 +2913,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2942,24 +2939,24 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -2968,86 +2965,86 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="B88" t="s">
-        <v>148</v>
-      </c>
-      <c r="C88" t="s">
-        <v>149</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>150</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3056,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -3064,16 +3061,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3082,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -3090,16 +3087,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3108,24 +3105,24 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -3134,86 +3131,86 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" t="s">
-        <v>152</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3222,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
@@ -3230,16 +3227,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3248,24 +3245,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3274,24 +3271,24 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -3300,86 +3297,86 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
-      <c r="B104" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3388,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -3396,16 +3393,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3414,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -3422,16 +3419,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3440,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
@@ -3457,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -3466,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
@@ -3474,25 +3471,25 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" t="s">
         <v>160</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
         <v>161</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>115</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="113">
@@ -3509,10 +3506,10 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -3526,19 +3523,19 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -3551,79 +3548,79 @@
       <c r="A115" t="s">
         <v>12</v>
       </c>
-      <c r="B115" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" t="s">
-        <v>167</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3632,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
@@ -3640,16 +3637,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3658,24 +3655,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3684,24 +3681,24 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
         <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -3710,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123">
@@ -3718,25 +3715,25 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
+        <v>175</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
         <v>173</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="124">
@@ -3744,104 +3741,104 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
         <v>176</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>12</v>
       </c>
-      <c r="B125" t="s">
-        <v>177</v>
-      </c>
-      <c r="C125" t="s">
-        <v>178</v>
-      </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="s">
-        <v>173</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3850,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -3858,16 +3855,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3876,24 +3873,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3902,24 +3899,24 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
         <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3928,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133">
@@ -3936,25 +3933,25 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
+        <v>175</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
         <v>173</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="134">
@@ -3962,104 +3959,104 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
         <v>176</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
         <v>12</v>
       </c>
-      <c r="B135" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135" t="s">
-        <v>178</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>173</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4068,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -4076,16 +4073,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4094,24 +4091,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4120,24 +4117,24 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -4146,86 +4143,86 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
-      <c r="B143" t="s">
-        <v>185</v>
-      </c>
-      <c r="C143" t="s">
-        <v>186</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
-        <v>187</v>
-      </c>
-      <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4234,7 +4231,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -4242,16 +4239,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4260,24 +4257,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4286,24 +4283,24 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C150" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -4320,25 +4317,25 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152">
@@ -4346,16 +4343,16 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -4364,86 +4361,86 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
         <v>12</v>
       </c>
-      <c r="B153" t="s">
-        <v>196</v>
-      </c>
-      <c r="C153" t="s">
-        <v>197</v>
-      </c>
-      <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>199</v>
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4452,7 +4449,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
@@ -4460,16 +4457,16 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4478,24 +4475,24 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -4504,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
@@ -4512,10 +4509,10 @@
         <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -4530,37 +4527,11 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" t="s">
-        <v>156</v>
-      </c>
-      <c r="D161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -374,10 +374,10 @@
     <t>업데이트 버전 시퀀스 (0에서 시작해서 정보 업데이트가 될 때마다 1 씩 올라갑니다. 예약 프로세스 진행중 버전 정보가 맞지 않으면 진행이 불가능하게 할 것.)</t>
   </si>
   <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_INFO_UID</t>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY_UID</t>
   </si>
   <si>
     <t>대여 가능 상품 예약 정보 고유키</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -395,7 +395,7 @@
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
-    <t>예약 상태 코드(1 : 예약 신청, 2 : 결재 완료, 3 : 예약 승인, 4 : 예약 거부, 5 : 예약 취소 신청, 6 : 예약 취소 승인, 7 : 예약 취소 거부, 8 : 예약 취소 후 환불 완료, 9: 조기반납신고, 10:조기반납 확인,11:조기반납 신고취소)</t>
+    <t>예약 상태 코드(1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인, 8: 사용자 조기반납 신고취소)</t>
   </si>
   <si>
     <t>상태 변경 상세</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -395,7 +395,7 @@
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
-    <t>예약 상태 코드(1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인, 8: 사용자 조기반납 신고취소)</t>
+    <t>예약 상태 코드(1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인)</t>
   </si>
   <si>
     <t>상태 변경 상세</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="197">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -143,16 +143,7 @@
     <t>PAYMENT_DEADLINE_DATETIME</t>
   </si>
   <si>
-    <t>예약 결재 기한 (예약 요청일로부터 생성, 이 시점이 지났고, payment_complete_datetime 가 충족되지 않았다면 취소로 간주)</t>
-  </si>
-  <si>
-    <t>예약 취소 신청 가능 기한</t>
-  </si>
-  <si>
-    <t>CANCELABLE_DEADLINE_DATETIME</t>
-  </si>
-  <si>
-    <t>예약 요청일로부터 생성, 예약 취소 신청 가능 기한</t>
+    <t>예약 결재 기한 (결재 기한 초과 처리.)</t>
   </si>
   <si>
     <t>관리자 승인 기한</t>
@@ -977,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H160"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1284,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1310,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1319,27 +1310,27 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1350,7 +1341,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1362,16 +1353,16 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1379,16 +1370,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1397,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1405,16 +1396,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1430,79 +1421,79 @@
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1511,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1519,16 +1510,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1537,38 +1528,38 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -1580,21 +1571,21 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -1606,21 +1597,21 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
         <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
@@ -1632,10 +1623,10 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1661,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -1672,45 +1663,45 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -1719,86 +1710,86 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1807,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1815,16 +1806,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1833,33 +1824,33 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -1867,10 +1858,10 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1885,33 +1876,33 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -1928,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1937,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
@@ -1945,16 +1936,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1963,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
@@ -1971,16 +1962,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -1989,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
@@ -1997,16 +1988,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -2023,16 +2014,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2041,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -2058,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2084,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2093,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -2101,19 +2092,19 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -2136,16 +2127,16 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -2153,16 +2144,16 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -2171,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
@@ -2179,16 +2170,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2197,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
@@ -2205,16 +2196,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2223,86 +2214,86 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2311,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -2319,16 +2310,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2337,24 +2328,24 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2363,24 +2354,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
         <v>123</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2389,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -2397,104 +2388,104 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>126</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2503,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -2511,16 +2502,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2529,24 +2520,24 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2555,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -2563,10 +2554,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2581,112 +2572,112 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2695,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -2703,16 +2694,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2721,7 +2712,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -2729,16 +2720,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2747,112 +2738,112 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" t="s">
         <v>140</v>
       </c>
-      <c r="C78" t="s">
-        <v>141</v>
-      </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -2861,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -2869,16 +2860,16 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2887,24 +2878,24 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2913,24 +2904,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2939,86 +2930,86 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>12</v>
       </c>
-      <c r="B87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -3027,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -3035,16 +3026,16 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3053,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -3061,16 +3052,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3079,24 +3070,24 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3105,86 +3096,86 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3193,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
@@ -3201,16 +3192,16 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3219,24 +3210,24 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3245,24 +3236,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3271,86 +3262,86 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>12</v>
       </c>
-      <c r="B103" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>147</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -3359,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -3367,16 +3358,16 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3385,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -3393,16 +3384,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3411,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
@@ -3428,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3437,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
@@ -3445,25 +3436,25 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" t="s">
         <v>157</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
         <v>158</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>112</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="112">
@@ -3480,10 +3471,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -3506,95 +3497,95 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>12</v>
       </c>
-      <c r="B114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -3603,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -3611,16 +3602,16 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3629,24 +3620,24 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3655,25 +3646,25 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
         <v>169</v>
       </c>
-      <c r="C121" t="s">
-        <v>153</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>13</v>
-      </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
@@ -3681,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
@@ -3724,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
@@ -3740,79 +3731,79 @@
       <c r="A124" t="s">
         <v>12</v>
       </c>
-      <c r="B124" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" t="s">
-        <v>177</v>
-      </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" t="s">
-        <v>172</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -3821,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
@@ -3829,16 +3820,16 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3847,24 +3838,24 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3873,25 +3864,25 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
         <v>169</v>
       </c>
-      <c r="C131" t="s">
-        <v>153</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
@@ -3899,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
@@ -3907,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -3933,16 +3924,16 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -3958,79 +3949,79 @@
       <c r="A134" t="s">
         <v>12</v>
       </c>
-      <c r="B134" t="s">
-        <v>176</v>
-      </c>
-      <c r="C134" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>172</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -4039,7 +4030,7 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -4047,16 +4038,16 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4065,24 +4056,24 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4091,24 +4082,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4117,86 +4108,86 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>12</v>
       </c>
-      <c r="B142" t="s">
-        <v>184</v>
-      </c>
-      <c r="C142" t="s">
-        <v>185</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" t="s">
-        <v>186</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -4205,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -4213,16 +4204,16 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4231,24 +4222,24 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4257,24 +4248,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C149" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4283,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150">
@@ -4291,25 +4282,25 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" t="s">
         <v>190</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>113</v>
+      </c>
+      <c r="F150" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
         <v>191</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>112</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="151">
@@ -4326,7 +4317,7 @@
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4342,79 +4333,79 @@
       <c r="A152" t="s">
         <v>12</v>
       </c>
-      <c r="B152" t="s">
-        <v>195</v>
-      </c>
-      <c r="C152" t="s">
-        <v>196</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G155" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -4423,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
@@ -4431,16 +4422,16 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4449,24 +4440,24 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4475,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159">
@@ -4483,10 +4474,10 @@
         <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -4501,37 +4492,11 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" t="s">
-        <v>169</v>
-      </c>
-      <c r="C160" t="s">
-        <v>153</v>
-      </c>
-      <c r="D160" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="199">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -464,111 +464,117 @@
     <t>HCP_HCP_PAYMENT_UID</t>
   </si>
   <si>
-    <t>결재 타입</t>
+    <t>결제 타입</t>
   </si>
   <si>
     <t>PAYMENT_TYPE</t>
   </si>
   <si>
-    <t>결재 타입(1 : 무통장 입금, 2 : 실시간 계좌이체, 3 : 토스 페이)</t>
-  </si>
-  <si>
-    <t>결재 금액</t>
+    <t>결제 타입(1 : 무통장 입금, 2 : 실시간 계좌이체, 3 : 토스 페이)</t>
+  </si>
+  <si>
+    <t>결제 금액</t>
   </si>
   <si>
     <t>PAYMENT_AMOUNT</t>
   </si>
   <si>
-    <t>결재 금액 통화 코드</t>
+    <t>결제 금액 통화 코드</t>
   </si>
   <si>
     <t>PAYMENT_CURRENCY_CODE</t>
   </si>
   <si>
-    <t>결재 금액 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
-  </si>
-  <si>
-    <t>결재 완료 일시</t>
+    <t>결제 금액 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
+    <t>결제 완료 일시</t>
   </si>
   <si>
     <t>PAYMENT_COMPLETE_DATETIME</t>
   </si>
   <si>
-    <t>결재가 완료 및 확인 된 일시(Null 이라면 아직 완료 처리가 아님)</t>
-  </si>
-  <si>
-    <t>결재 실패 여부</t>
+    <t>결제가 완료 및 확인 된 일시(Null 이라면 아직 완료 처리가 아님)</t>
+  </si>
+  <si>
+    <t>결제 실패 여부</t>
   </si>
   <si>
     <t>PAYMENT_FAILED</t>
   </si>
   <si>
+    <t>결제4 실패 여부</t>
+  </si>
+  <si>
     <t>HCP_PAYMENT_REAL_TIME_TRANSFERS</t>
   </si>
   <si>
     <t>HCP_PAYMENT_REAL_TIME_TRANSFERS_UID</t>
   </si>
   <si>
+    <t>결제 정보 고유키</t>
+  </si>
+  <si>
+    <t>입금 은행명</t>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>입금 은행 계좌번호</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>입금자명</t>
+  </si>
+  <si>
+    <t>DEPOSITOR_NAME</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_VIRTUAL_ACCOUNT_PAY</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_VIRTUAL_ACCOUNT_PAY_UID</t>
+  </si>
+  <si>
+    <t>입금 은행 가상 계좌번호</t>
+  </si>
+  <si>
+    <t>VIRTUAL_ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_TOSS_PAYMENT</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_TOSS_PAYMENT_UID</t>
+  </si>
+  <si>
+    <t>Toss 거래 아이디</t>
+  </si>
+  <si>
+    <t>TOSS_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_REFUND</t>
+  </si>
+  <si>
+    <t>HCP_PAYMENT_REFUND_UID</t>
+  </si>
+  <si>
     <t>결재 정보 고유키</t>
   </si>
   <si>
-    <t>입금 은행명</t>
-  </si>
-  <si>
-    <t>BANK_NAME</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>입금 은행 계좌번호</t>
-  </si>
-  <si>
-    <t>ACCOUNT_NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>입금자명</t>
-  </si>
-  <si>
-    <t>DEPOSITOR_NAME</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT_VIRTUAL_ACCOUNT_PAY</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT_VIRTUAL_ACCOUNT_PAY_UID</t>
-  </si>
-  <si>
-    <t>입금 은행 가상 계좌번호</t>
-  </si>
-  <si>
-    <t>VIRTUAL_ACCOUNT_NUMBER</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT_TOSS_PAYMENT</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT_TOSS_PAYMENT_UID</t>
-  </si>
-  <si>
-    <t>Toss 거래 아이디</t>
-  </si>
-  <si>
-    <t>TOSS_TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT_REFUND</t>
-  </si>
-  <si>
-    <t>HCP_PAYMENT_REFUND_UID</t>
-  </si>
-  <si>
     <t>HCP_PAYMENT 행 고유키</t>
   </si>
   <si>
@@ -599,7 +605,7 @@
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_INFO</t>
   </si>
   <si>
-    <t>대여 가능 상품 예약 결재 정보 고유키</t>
+    <t>대여 가능 상품 예약 결제 정보 고유키</t>
   </si>
 </sst>
 </file>
@@ -3506,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
@@ -3516,7 +3522,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
@@ -3553,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -3628,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
         <v>150</v>
@@ -3654,25 +3660,25 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
+        <v>169</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>170</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
         <v>168</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>169</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="122">
@@ -3680,25 +3686,25 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>173</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
         <v>171</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>172</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="123">
@@ -3706,25 +3712,25 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s">
+        <v>175</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
         <v>174</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>169</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="124">
@@ -3734,7 +3740,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -3846,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
         <v>150</v>
@@ -3872,25 +3878,25 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>170</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
         <v>168</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="s">
-        <v>169</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="132">
@@ -3898,16 +3904,16 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3916,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133">
@@ -3924,25 +3930,25 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
         <v>174</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>169</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="134">
@@ -3952,7 +3958,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136">
@@ -3989,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4064,7 +4070,7 @@
         <v>23</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
         <v>150</v>
@@ -4090,25 +4096,25 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C141" t="s">
+        <v>183</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>184</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
         <v>182</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="142">
@@ -4118,7 +4124,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144">
@@ -4155,7 +4161,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -4230,7 +4236,7 @@
         <v>23</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C148" t="s">
         <v>150</v>
@@ -4248,7 +4254,7 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149">
@@ -4256,10 +4262,10 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -4274,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150">
@@ -4282,10 +4288,10 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C150" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -4300,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151">
@@ -4308,10 +4314,10 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C151" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -4326,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152">
@@ -4336,7 +4342,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154">
@@ -4373,7 +4379,7 @@
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -4448,7 +4454,7 @@
         <v>23</v>
       </c>
       <c r="B158" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
@@ -4474,7 +4480,7 @@
         <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
         <v>150</v>
@@ -4492,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160">

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="202">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>VARCHAR(600)</t>
+  </si>
+  <si>
+    <t>상태 변경 일시</t>
+  </si>
+  <si>
+    <t>STATE_CHANGE_DATETIME</t>
+  </si>
+  <si>
+    <t>상태 변경 기준 일시(행 생성일과 다르게 사건의 발생 일시 기준)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO</t>
@@ -974,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H161"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2419,79 +2428,79 @@
       <c r="A62" t="s">
         <v>12</v>
       </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2500,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -2508,16 +2517,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2526,24 +2535,24 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2552,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -2560,10 +2569,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2578,112 +2587,112 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>12</v>
       </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2692,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -2700,16 +2709,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2718,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2726,16 +2735,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2744,112 +2753,112 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
         <v>140</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -2858,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -2866,16 +2875,16 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2884,24 +2893,24 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2910,24 +2919,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2936,86 +2945,86 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>12</v>
       </c>
+      <c r="B87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -3024,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -3032,16 +3041,16 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3050,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -3058,16 +3067,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3076,24 +3085,24 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3102,86 +3111,86 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3190,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -3198,16 +3207,16 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3216,24 +3225,24 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3242,24 +3251,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3268,86 +3277,86 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>12</v>
       </c>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -3356,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -3364,16 +3373,16 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3382,7 +3391,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -3390,16 +3399,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3408,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -3425,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3434,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
@@ -3442,25 +3451,25 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
         <v>157</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>113</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="112">
@@ -3477,10 +3486,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -3503,10 +3512,10 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -3519,79 +3528,79 @@
       <c r="A114" t="s">
         <v>12</v>
       </c>
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -3600,7 +3609,7 @@
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -3608,16 +3617,16 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3626,24 +3635,24 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3652,24 +3661,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3678,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -3721,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
@@ -3737,79 +3746,79 @@
       <c r="A124" t="s">
         <v>12</v>
       </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>173</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -3818,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
@@ -3826,16 +3835,16 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3844,24 +3853,24 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3870,24 +3879,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3896,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -3904,10 +3913,10 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -3930,16 +3939,16 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -3955,79 +3964,79 @@
       <c r="A134" t="s">
         <v>12</v>
       </c>
+      <c r="B134" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>173</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" t="s">
-        <v>7</v>
-      </c>
-      <c r="H136" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -4036,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -4044,16 +4053,16 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4062,24 +4071,24 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4088,24 +4097,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4114,86 +4123,86 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>12</v>
       </c>
+      <c r="B142" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>187</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" t="s">
-        <v>7</v>
-      </c>
-      <c r="H144" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -4202,7 +4211,7 @@
         <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -4210,16 +4219,16 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4228,24 +4237,24 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4254,24 +4263,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4280,7 +4289,7 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150">
@@ -4288,25 +4297,25 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>109</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
         <v>192</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>113</v>
-      </c>
-      <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="151">
@@ -4323,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -4339,79 +4348,79 @@
       <c r="A152" t="s">
         <v>12</v>
       </c>
+      <c r="B152" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" t="s">
-        <v>7</v>
-      </c>
-      <c r="H154" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -4420,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
@@ -4428,16 +4437,16 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4446,24 +4455,24 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4472,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
@@ -4480,10 +4489,10 @@
         <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -4498,11 +4507,37 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -137,13 +137,13 @@
     <t>대여가 끝나는 일시 (회수 시간은 포함되지 않는 순수 서비스 이용 시간)</t>
   </si>
   <si>
-    <t>예약 결재 기한</t>
-  </si>
-  <si>
-    <t>PAYMENT_DEADLINE_DATETIME</t>
-  </si>
-  <si>
-    <t>예약 결재 기한 (결재 기한 초과 처리.)</t>
+    <t>예약 결재 확인 기한</t>
+  </si>
+  <si>
+    <t>PAYMENT_CHECK_DEADLINE_DATETIME</t>
+  </si>
+  <si>
+    <t>예약 결재 확인 기한 (결재 기한 초과 처리.)</t>
   </si>
   <si>
     <t>관리자 승인 기한</t>
@@ -386,7 +386,7 @@
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
-    <t>예약 상태 코드(1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인)</t>
+    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인)</t>
   </si>
   <si>
     <t>상태 변경 상세</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -386,7 +386,7 @@
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
-    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인)</t>
+    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인, 8: 결제 환불 처리)</t>
   </si>
   <si>
     <t>상태 변경 상세</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="204">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>관리자 승인 기한 (이 시점이 지났고, reservation_approval_datetime 가 충족되지 않았다면 취소로 간주)</t>
+  </si>
+  <si>
+    <t>예약 취소 가능 기한</t>
+  </si>
+  <si>
+    <t>RESERVATION_CANCEL_DEADLINE_DATETIME</t>
   </si>
   <si>
     <t>상품명</t>
@@ -983,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1290,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1299,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1307,77 +1313,77 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1385,25 +1391,25 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1411,104 +1417,104 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>12</v>
       </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1517,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1525,16 +1531,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1543,111 +1549,111 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -1655,10 +1661,10 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1667,56 +1673,56 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -1725,86 +1731,86 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>12</v>
       </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1813,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1821,16 +1827,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1839,33 +1845,33 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1876,7 +1882,7 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1891,33 +1897,33 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
@@ -1925,16 +1931,16 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1943,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -1951,16 +1957,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1969,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1977,25 +1983,25 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
         <v>63</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44">
@@ -2003,25 +2009,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
         <v>67</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -2029,16 +2035,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2047,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -2055,25 +2061,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
         <v>97</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
         <v>98</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -2081,25 +2087,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
         <v>101</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -2107,25 +2113,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>104</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -2133,25 +2139,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
         <v>108</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -2159,25 +2165,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
         <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51">
@@ -2185,16 +2191,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2203,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -2211,16 +2217,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2229,86 +2235,86 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>12</v>
       </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2317,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -2325,16 +2331,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2343,24 +2349,24 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2369,33 +2375,33 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
         <v>122</v>
       </c>
       <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
         <v>123</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -2403,25 +2409,25 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>127</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -2429,17 +2435,17 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
         <v>129</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>130</v>
       </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
@@ -2447,86 +2453,86 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>12</v>
       </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2535,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -2543,16 +2549,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2561,24 +2567,24 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2587,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -2595,10 +2601,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2613,112 +2619,112 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>12</v>
       </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2727,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2735,16 +2741,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2753,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -2761,16 +2767,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2779,12 +2785,12 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
         <v>142</v>
@@ -2796,10 +2802,10 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -2810,81 +2816,81 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2893,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -2901,16 +2907,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2919,24 +2925,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2945,24 +2951,24 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -2971,86 +2977,86 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3059,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -3067,16 +3073,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3085,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -3093,16 +3099,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3111,24 +3117,24 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
         <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -3137,86 +3143,86 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3225,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -3233,16 +3239,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3251,24 +3257,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3277,24 +3283,24 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -3303,86 +3309,86 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3391,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -3399,16 +3405,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3417,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -3425,16 +3431,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3443,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -3451,25 +3457,25 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" t="s">
         <v>157</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
         <v>158</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="112">
@@ -3486,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -3495,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
@@ -3503,25 +3509,25 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" t="s">
         <v>162</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>115</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
         <v>163</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="114">
@@ -3529,104 +3535,104 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
+        <v>164</v>
+      </c>
+      <c r="C114" t="s">
         <v>165</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
         <v>166</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
         <v>12</v>
       </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3635,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -3643,16 +3649,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3661,24 +3667,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3687,24 +3693,24 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -3713,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -3721,17 +3727,17 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" t="s">
         <v>174</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
         <v>175</v>
       </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>176</v>
-      </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124">
@@ -3747,17 +3753,17 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" t="s">
         <v>177</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
         <v>178</v>
       </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" t="s">
-        <v>173</v>
-      </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
@@ -3765,86 +3771,86 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>12</v>
       </c>
+      <c r="B125" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>175</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3853,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
@@ -3861,16 +3867,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3879,24 +3885,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3905,24 +3911,24 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3931,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -3939,16 +3945,16 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -3957,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134">
@@ -3965,17 +3971,17 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s">
+        <v>184</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
         <v>178</v>
       </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>173</v>
-      </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
@@ -3983,86 +3989,86 @@
         <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
         <v>12</v>
       </c>
+      <c r="B135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" t="s">
-        <v>7</v>
-      </c>
-      <c r="H137" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4071,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -4079,16 +4085,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4097,24 +4103,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4123,24 +4129,24 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -4149,86 +4155,86 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
+      <c r="B143" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" t="s">
+        <v>188</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>189</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4237,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -4245,16 +4251,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4263,24 +4269,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4289,33 +4295,33 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B150" t="s">
         <v>192</v>
       </c>
       <c r="C150" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
         <v>193</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>109</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="151">
@@ -4332,16 +4338,16 @@
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152">
@@ -4349,16 +4355,16 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152" t="s">
         <v>197</v>
       </c>
-      <c r="C152" t="s">
-        <v>198</v>
-      </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -4367,86 +4373,86 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
         <v>12</v>
       </c>
+      <c r="B153" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" t="s">
-        <v>7</v>
-      </c>
-      <c r="H155" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4455,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
@@ -4463,16 +4469,16 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4481,24 +4487,24 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -4507,7 +4513,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -4515,10 +4521,10 @@
         <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -4533,11 +4539,37 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="201">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -360,15 +360,6 @@
   </si>
   <si>
     <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
-  </si>
-  <si>
-    <t>업데이터 버전 시퀀스</t>
-  </si>
-  <si>
-    <t>UPDATE_VERSION_SEQ</t>
-  </si>
-  <si>
-    <t>업데이트 버전 시퀀스 (0에서 시작해서 정보 업데이트가 될 때마다 1 씩 올라갑니다. 예약 프로세스 진행중 버전 정보가 맞지 않으면 진행이 불가능하게 할 것.)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY</t>
@@ -989,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H161"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2242,79 +2233,79 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2323,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -2331,16 +2322,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2349,24 +2340,24 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2375,24 +2366,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2401,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -2409,25 +2400,25 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -2444,95 +2435,95 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
         <v>130</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2541,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -2549,16 +2540,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2567,24 +2558,24 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2593,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -2601,10 +2592,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2619,112 +2610,112 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2733,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2741,16 +2732,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2759,7 +2750,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -2767,16 +2758,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2785,112 +2776,112 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" t="s">
         <v>142</v>
       </c>
-      <c r="C79" t="s">
-        <v>143</v>
-      </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2899,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -2907,16 +2898,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2925,24 +2916,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2951,24 +2942,24 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -2977,86 +2968,86 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="B88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3065,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -3073,16 +3064,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3091,7 +3082,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -3099,16 +3090,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3117,24 +3108,24 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -3143,86 +3134,86 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3231,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
@@ -3239,16 +3230,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3257,24 +3248,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3283,24 +3274,24 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -3309,86 +3300,86 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
-      <c r="B104" t="s">
-        <v>147</v>
-      </c>
-      <c r="C104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" t="s">
-        <v>149</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3397,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -3405,16 +3396,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3423,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -3431,16 +3422,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3449,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
@@ -3466,7 +3457,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -3475,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
@@ -3483,25 +3474,25 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
         <v>159</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
         <v>160</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>111</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="113">
@@ -3518,10 +3509,10 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -3544,10 +3535,10 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -3560,79 +3551,79 @@
       <c r="A115" t="s">
         <v>12</v>
       </c>
-      <c r="B115" t="s">
-        <v>167</v>
-      </c>
-      <c r="C115" t="s">
-        <v>168</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3641,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
@@ -3649,16 +3640,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3667,24 +3658,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3693,25 +3684,25 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
         <v>172</v>
       </c>
-      <c r="C122" t="s">
-        <v>155</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
       <c r="F122" t="s">
         <v>14</v>
       </c>
@@ -3719,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123">
@@ -3762,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -3778,79 +3769,79 @@
       <c r="A125" t="s">
         <v>12</v>
       </c>
-      <c r="B125" t="s">
-        <v>179</v>
-      </c>
-      <c r="C125" t="s">
-        <v>180</v>
-      </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="s">
-        <v>175</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3859,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -3867,16 +3858,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3885,24 +3876,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3911,25 +3902,25 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
         <v>172</v>
       </c>
-      <c r="C132" t="s">
-        <v>155</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
@@ -3937,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133">
@@ -3945,10 +3936,10 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -3971,16 +3962,16 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -3996,79 +3987,79 @@
       <c r="A135" t="s">
         <v>12</v>
       </c>
-      <c r="B135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C135" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>175</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4077,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -4085,16 +4076,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4103,24 +4094,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4129,24 +4120,24 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -4155,86 +4146,86 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
-      <c r="B143" t="s">
-        <v>187</v>
-      </c>
-      <c r="C143" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
-        <v>189</v>
-      </c>
-      <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4243,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -4251,16 +4242,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4269,24 +4260,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4295,24 +4286,24 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" t="s">
         <v>192</v>
       </c>
-      <c r="C150" t="s">
-        <v>155</v>
-      </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -4321,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151">
@@ -4329,25 +4320,25 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" t="s">
         <v>194</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>115</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
         <v>195</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>111</v>
-      </c>
-      <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="152">
@@ -4364,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -4380,79 +4371,79 @@
       <c r="A153" t="s">
         <v>12</v>
       </c>
-      <c r="B153" t="s">
-        <v>199</v>
-      </c>
-      <c r="C153" t="s">
-        <v>200</v>
-      </c>
-      <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4461,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
@@ -4469,16 +4460,16 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4487,24 +4478,24 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -4513,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
@@ -4521,10 +4512,10 @@
         <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -4539,37 +4530,11 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" t="s">
-        <v>172</v>
-      </c>
-      <c r="C161" t="s">
-        <v>155</v>
-      </c>
-      <c r="D161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="204">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
+    <t>예약 상품 버전 시퀀스</t>
+  </si>
+  <si>
+    <t>VERSION_SEQ</t>
+  </si>
+  <si>
+    <t>예약 상품 정보 버전 시퀀스(고객이 정보를 확인한 시점의 버전과 예약 신청하는 시점의 버전이 다르면 진행 불가)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY</t>
@@ -980,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2233,79 +2242,79 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2314,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -2322,16 +2331,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2340,24 +2349,24 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2366,33 +2375,33 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
         <v>123</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -2400,25 +2409,25 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
         <v>125</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
         <v>126</v>
       </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>127</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="62">
@@ -2435,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2444,86 +2453,86 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>12</v>
       </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2532,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -2540,16 +2549,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2558,24 +2567,24 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2584,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -2592,10 +2601,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2610,112 +2619,112 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>12</v>
       </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2724,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2732,16 +2741,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2750,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -2758,16 +2767,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2776,112 +2785,112 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
         <v>142</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2890,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -2898,16 +2907,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2916,24 +2925,24 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2942,24 +2951,24 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -2968,86 +2977,86 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3056,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -3064,16 +3073,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3082,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -3090,16 +3099,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3108,24 +3117,24 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -3134,86 +3143,86 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3222,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -3230,16 +3239,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3248,24 +3257,24 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3274,24 +3283,24 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -3300,86 +3309,86 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>12</v>
       </c>
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3388,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -3396,16 +3405,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3414,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -3422,16 +3431,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3440,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -3457,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -3466,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
@@ -3474,25 +3483,25 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
         <v>159</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>115</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="113">
@@ -3509,10 +3518,10 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -3535,10 +3544,10 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -3551,79 +3560,79 @@
       <c r="A115" t="s">
         <v>12</v>
       </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -3632,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -3640,16 +3649,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3658,24 +3667,24 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3684,24 +3693,24 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -3710,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -3753,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -3769,79 +3778,79 @@
       <c r="A125" t="s">
         <v>12</v>
       </c>
+      <c r="B125" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>175</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3850,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
@@ -3858,16 +3867,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3876,24 +3885,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3902,24 +3911,24 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3928,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -3936,10 +3945,10 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -3962,16 +3971,16 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -3987,79 +3996,79 @@
       <c r="A135" t="s">
         <v>12</v>
       </c>
+      <c r="B135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" t="s">
-        <v>7</v>
-      </c>
-      <c r="H137" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4068,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -4076,16 +4085,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4094,24 +4103,24 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4120,24 +4129,24 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -4146,86 +4155,86 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
+      <c r="B143" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" t="s">
+        <v>188</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>189</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4234,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -4242,16 +4251,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4260,24 +4269,24 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4286,24 +4295,24 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -4312,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151">
@@ -4320,25 +4329,25 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C151" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>111</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
         <v>194</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
-        <v>115</v>
-      </c>
-      <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="152">
@@ -4355,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F152" t="s">
         <v>26</v>
@@ -4371,79 +4380,79 @@
       <c r="A153" t="s">
         <v>12</v>
       </c>
+      <c r="B153" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" t="s">
-        <v>7</v>
-      </c>
-      <c r="H155" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -4452,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
@@ -4460,16 +4469,16 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4478,24 +4487,24 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -4504,7 +4513,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -4512,10 +4521,10 @@
         <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C160" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -4530,11 +4539,37 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="207">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>대여가 끝나는 일시 (회수 시간은 포함되지 않는 순수 서비스 이용 시간)</t>
+  </si>
+  <si>
+    <t>고객 예약 결제 기한</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PAYMENT_DEADLINE_DATETIME</t>
+  </si>
+  <si>
+    <t>고객에게 이때까지 결제를 해야 한다고 통보한 기한</t>
   </si>
   <si>
     <t>예약 결재 확인 기한</t>
@@ -989,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H163"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1305,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1313,25 +1322,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -1348,36 +1357,36 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
         <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1388,7 +1397,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -1400,16 +1409,16 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1417,25 +1426,25 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -1443,16 +1452,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1468,79 +1477,79 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1549,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1557,16 +1566,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1575,38 +1584,38 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
@@ -1618,21 +1627,21 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
         <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
@@ -1644,21 +1653,21 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -1670,10 +1679,10 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -1699,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1710,45 +1719,45 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1757,86 +1766,86 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>12</v>
       </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1845,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1853,16 +1862,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1871,33 +1880,33 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1905,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1923,33 +1932,33 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
@@ -1966,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1975,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -1983,16 +1992,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -2001,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
@@ -2009,25 +2018,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>65</v>
       </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
         <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -2035,16 +2044,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2061,16 +2070,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2079,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -2096,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2122,16 +2131,16 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -2139,19 +2148,19 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
         <v>106</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>107</v>
       </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -2174,16 +2183,16 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
         <v>111</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51">
@@ -2191,25 +2200,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
         <v>114</v>
       </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
         <v>115</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -2217,16 +2226,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2235,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
@@ -2243,16 +2252,16 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -2261,86 +2270,86 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>12</v>
       </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2349,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -2357,16 +2366,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2375,24 +2384,24 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2401,33 +2410,33 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>126</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -2435,25 +2444,25 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>129</v>
       </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
         <v>130</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -2470,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2479,86 +2488,86 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>12</v>
       </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2567,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -2575,16 +2584,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2593,24 +2602,24 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2619,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -2627,10 +2636,10 @@
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -2645,112 +2654,112 @@
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>12</v>
       </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2759,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -2767,16 +2776,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2785,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -2793,16 +2802,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -2811,112 +2820,112 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
         <v>145</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2925,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -2933,16 +2942,16 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -2951,24 +2960,24 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -2977,24 +2986,24 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -3003,86 +3012,86 @@
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>12</v>
       </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3091,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -3099,16 +3108,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -3117,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -3125,16 +3134,16 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -3143,24 +3152,24 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -3169,86 +3178,86 @@
         <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -3257,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -3265,16 +3274,16 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -3283,24 +3292,24 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -3309,24 +3318,24 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -3335,86 +3344,86 @@
         <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>12</v>
       </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3423,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -3431,16 +3440,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -3449,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -3457,16 +3466,16 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -3475,7 +3484,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -3492,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -3501,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
@@ -3509,25 +3518,25 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
         <v>162</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>115</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="114">
@@ -3544,10 +3553,10 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -3570,10 +3579,10 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
@@ -3586,79 +3595,79 @@
       <c r="A116" t="s">
         <v>12</v>
       </c>
+      <c r="B116" t="s">
+        <v>170</v>
+      </c>
+      <c r="C116" t="s">
+        <v>171</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>6</v>
-      </c>
-      <c r="G118" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3667,7 +3676,7 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -3675,16 +3684,16 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -3693,24 +3702,24 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -3719,24 +3728,24 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
@@ -3745,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
@@ -3788,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -3804,79 +3813,79 @@
       <c r="A126" t="s">
         <v>12</v>
       </c>
+      <c r="B126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3885,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
@@ -3893,16 +3902,16 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3911,24 +3920,24 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -3937,24 +3946,24 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -3963,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -3971,10 +3980,10 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -3997,16 +4006,16 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -4022,79 +4031,79 @@
       <c r="A136" t="s">
         <v>12</v>
       </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>178</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" t="s">
-        <v>4</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4103,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
@@ -4111,16 +4120,16 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -4129,24 +4138,24 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -4155,24 +4164,24 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -4181,86 +4190,86 @@
         <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
         <v>12</v>
       </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>192</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>6</v>
-      </c>
-      <c r="G146" t="s">
-        <v>7</v>
-      </c>
-      <c r="H146" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4269,7 +4278,7 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -4277,16 +4286,16 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -4295,24 +4304,24 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -4321,24 +4330,24 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C151" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -4347,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152">
@@ -4355,25 +4364,25 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
         <v>197</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>115</v>
-      </c>
-      <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="153">
@@ -4390,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F153" t="s">
         <v>26</v>
@@ -4406,79 +4415,79 @@
       <c r="A154" t="s">
         <v>12</v>
       </c>
+      <c r="B154" t="s">
+        <v>202</v>
+      </c>
+      <c r="C154" t="s">
+        <v>203</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" t="s">
-        <v>7</v>
-      </c>
-      <c r="H156" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -4487,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
@@ -4495,16 +4504,16 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -4513,24 +4522,24 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -4539,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
@@ -4547,10 +4556,10 @@
         <v>23</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -4565,11 +4574,37 @@
         <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="219">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -378,6 +378,42 @@
   </si>
   <si>
     <t>예약 상품 정보 버전 시퀀스(고객이 정보를 확인한 시점의 버전과 예약 신청하는 시점의 버전이 다르면 진행 불가)</t>
+  </si>
+  <si>
+    <t>고객 결제 기한 설정값</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PAYMENT_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>고객에게 이때까지 결제를 해야 한다고 통보하는 기한 설정값(예약일로부터 +N 분)</t>
+  </si>
+  <si>
+    <t>결제 확인 기한 설정값</t>
+  </si>
+  <si>
+    <t>PAYMENT_CHECK_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>관리자의 결제 확인 기한 설정값(예약일로 부터 +N 분, 고객 결제 기한 설정값보다 크거나 같음)</t>
+  </si>
+  <si>
+    <t>관리자 승인 기한 설정값</t>
+  </si>
+  <si>
+    <t>APPROVAL_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>관리자의 예약 승인 기한 설정값(예약일로부터 +N분, 결제 확인 기한 설정값보다 크거나 같음)</t>
+  </si>
+  <si>
+    <t>취소 가능 기한 설정값</t>
+  </si>
+  <si>
+    <t>CANCEL_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>고객이 예약 취소 가능한 기한 설정값(대여 시작일로부터 -N분이며, 그 결과가 관리자 승인 기한보다 커야함)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY</t>
@@ -998,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H167"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2303,47 +2339,89 @@
       <c r="A55" t="s">
         <v>12</v>
       </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2358,102 +2436,60 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2462,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -2470,16 +2506,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2488,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -2496,16 +2532,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2514,60 +2550,102 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2576,96 +2654,54 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -2680,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -2688,176 +2724,176 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>12</v>
       </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H80" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -2866,60 +2902,102 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>12</v>
       </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -2928,108 +3006,66 @@
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>12</v>
       </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -3038,60 +3074,102 @@
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>12</v>
       </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3100,96 +3178,54 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>12</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3204,54 +3240,96 @@
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>12</v>
       </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3266,102 +3344,60 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>12</v>
       </c>
-      <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>22</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -3370,60 +3406,102 @@
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>12</v>
       </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3432,102 +3510,60 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>12</v>
       </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -3536,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
@@ -3544,16 +3580,16 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -3562,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
@@ -3570,10 +3606,10 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -3582,13 +3618,13 @@
         <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -3596,16 +3632,16 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -3614,60 +3650,102 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>12</v>
       </c>
+      <c r="B117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G119" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -3676,102 +3754,60 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>12</v>
       </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -3780,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -3788,16 +3824,16 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -3806,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -3814,16 +3850,16 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -3832,60 +3868,102 @@
         <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>187</v>
+      </c>
+      <c r="C127" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="F129" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3894,102 +3972,60 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
         <v>12</v>
       </c>
-      <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H133" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -3998,7 +4034,7 @@
         <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -4006,16 +4042,16 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -4024,7 +4060,7 @@
         <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -4032,16 +4068,16 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -4050,60 +4086,102 @@
         <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>187</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="F139" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4112,102 +4190,60 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
         <v>12</v>
       </c>
-      <c r="B141" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
@@ -4216,60 +4252,102 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
         <v>12</v>
       </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="C147" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="C148" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4278,102 +4356,60 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>12</v>
       </c>
-      <c r="B149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H151" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -4382,7 +4418,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
@@ -4390,25 +4426,25 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -4416,10 +4452,10 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -4428,164 +4464,164 @@
         <v>22</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
         <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>114</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="C157" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="F157" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G157" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
         <v>12</v>
       </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>12</v>
-      </c>
-      <c r="B160" t="s">
-        <v>20</v>
-      </c>
-      <c r="C160" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" t="s">
-        <v>22</v>
-      </c>
-      <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -4600,11 +4636,115 @@
         <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>187</v>
+      </c>
+      <c r="C166" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="223">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -44,459 +44,468 @@
     <t>고유키</t>
   </si>
   <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO_UID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BIGINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>행 고유키</t>
+  </si>
+  <si>
+    <t>삭제여부</t>
+  </si>
+  <si>
+    <t>DEL_FRAG</t>
+  </si>
+  <si>
+    <t>BIT(1)</t>
+  </si>
+  <si>
+    <t>행 삭제여부</t>
+  </si>
+  <si>
+    <t>행 생성일시</t>
+  </si>
+  <si>
+    <t>ROW_CREATE_DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME(3)</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_INFO_UID</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_INFO 행 고유키</t>
+  </si>
+  <si>
+    <t>예약자 이름</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(90)</t>
+  </si>
+  <si>
+    <t>예약자 전화번호</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>예약자 전화번호(국가번호 + 전화번호)</t>
+  </si>
+  <si>
+    <t>대여 시작 일시</t>
+  </si>
+  <si>
+    <t>RENTAL_START_DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>대여가 시작되는 일시</t>
+  </si>
+  <si>
+    <t>대여 끝 일시</t>
+  </si>
+  <si>
+    <t>RENTAL_END_DATETIME</t>
+  </si>
+  <si>
+    <t>대여가 끝나는 일시 (회수 시간은 포함되지 않는 순수 서비스 이용 시간)</t>
+  </si>
+  <si>
+    <t>고객 예약 결제 기한</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PAYMENT_DEADLINE_DATETIME</t>
+  </si>
+  <si>
+    <t>고객에게 이때까지 결제를 해야 한다고 통보한 기한</t>
+  </si>
+  <si>
+    <t>예약 결재 확인 기한</t>
+  </si>
+  <si>
+    <t>PAYMENT_CHECK_DEADLINE_DATETIME</t>
+  </si>
+  <si>
+    <t>예약 결재 확인 기한 (결재 기한 초과 처리.)</t>
+  </si>
+  <si>
+    <t>관리자 승인 기한</t>
+  </si>
+  <si>
+    <t>RESERVATION_APPROVAL_DEADLINE_DATETIME</t>
+  </si>
+  <si>
+    <t>관리자 승인 기한 (이 시점이 지났고, reservation_approval_datetime 가 충족되지 않았다면 취소로 간주)</t>
+  </si>
+  <si>
+    <t>예약 취소 가능 기한</t>
+  </si>
+  <si>
+    <t>RESERVATION_CANCEL_DEADLINE_DATETIME</t>
+  </si>
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>고객에게 보일 상품명(아래 부터는 예약 당시의 정보로, 영수증의 기능을 위한 정보 복제 컬럼)</t>
+  </si>
+  <si>
+    <t>상품 소개</t>
+  </si>
+  <si>
+    <t>PRODUCT_INTRO</t>
+  </si>
+  <si>
+    <t>VARCHAR(6000)</t>
+  </si>
+  <si>
+    <t>고객에게 보일 상품 소개</t>
+  </si>
+  <si>
+    <t>상품 대표 이미지 테이블 고유번호</t>
+  </si>
+  <si>
+    <t>FRONT_IMAGE_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_IMAGE 행 고유키</t>
+  </si>
+  <si>
+    <t>주소-국가</t>
+  </si>
+  <si>
+    <t>ADDRESS_COUNTRY</t>
+  </si>
+  <si>
+    <t>VARCHAR(60)</t>
+  </si>
+  <si>
+    <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 국가</t>
+  </si>
+  <si>
+    <t>주소-메인</t>
+  </si>
+  <si>
+    <t>ADDRESS_MAIN</t>
+  </si>
+  <si>
+    <t>VARCHAR(300)</t>
+  </si>
+  <si>
+    <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 국가와 상세 주소를 제외</t>
+  </si>
+  <si>
+    <t>주소- 상세</t>
+  </si>
+  <si>
+    <t>ADDRESS_DETAIL</t>
+  </si>
+  <si>
+    <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 상세</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO_UID</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 재고 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY 행 고유키</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 개별 설명</t>
+  </si>
+  <si>
+    <t>PRODUCT_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(3000)</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 재고 이미지 테이블 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE 행 고유키</t>
+  </si>
+  <si>
+    <t>제품 대여 가능 최초 일시</t>
+  </si>
+  <si>
+    <t>FIRST_RENTABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>제품 대여(손님에게 제공)가 가능한 최초 일시</t>
+  </si>
+  <si>
+    <t>제품 대여 마지막 일시</t>
+  </si>
+  <si>
+    <t>LAST_RENTABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>제품 대여 마지막 일시 (이때가 대여 마지막 날)</t>
+  </si>
+  <si>
+    <t>예약 가능 설정</t>
+  </si>
+  <si>
+    <t>NOW_RESERVABLE</t>
+  </si>
+  <si>
+    <t>재고, 상품 상태와 상관 없이 현 시점 예약 가능한지에 대한 관리자의 설정</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_INFO</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_CATEGORY_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_CATEGORY 행 고유키</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 이미지 고유키</t>
+  </si>
+  <si>
+    <t>고객에게 보일 상품명</t>
+  </si>
+  <si>
+    <t>상품 예약 가능 최초 일시</t>
+  </si>
+  <si>
+    <t>FIRST_RESERVABLE_DATETIME</t>
+  </si>
+  <si>
+    <t>상품 예약이 가능한 최초 일시(콘서트 티켓 예매와 같은 서비스를 가정, 예약 러시 처리가 필요)</t>
+  </si>
+  <si>
+    <t>단위 예약 시간(분)</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_MINUTE</t>
+  </si>
+  <si>
+    <t>예약 추가 할 수 있는 최소 시간 단위 (분)</t>
+  </si>
+  <si>
+    <t>최소 예약 횟수</t>
+  </si>
+  <si>
+    <t>MINIMUM_RESERVATION_UNIT_COUNT</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED</t>
+  </si>
+  <si>
+    <t>단위 예약 시간을 대여일 기준에서 최소 몇번 추가 해야 하는지</t>
+  </si>
+  <si>
+    <t>최대 예약 횟수</t>
+  </si>
+  <si>
+    <t>MAXIMUM_RESERVATION_UNIT_COUNT</t>
+  </si>
+  <si>
+    <t>단위 예약 시간을 대여일 기준에서 최대 몇번 추가 가능한지 (Null 이라면 제한 없음)</t>
+  </si>
+  <si>
+    <t>예약 단가</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_PRICE</t>
+  </si>
+  <si>
+    <t>DECIMAL(15, 2) UNSIGNED</t>
+  </si>
+  <si>
+    <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>
+  </si>
+  <si>
+    <t>예약 단가 통화 코드</t>
+  </si>
+  <si>
+    <t>RESERVATION_UNIT_PRICE_CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+  </si>
+  <si>
+    <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
+  </si>
+  <si>
+    <t>예약 상품 버전 시퀀스</t>
+  </si>
+  <si>
+    <t>VERSION_SEQ</t>
+  </si>
+  <si>
+    <t>예약 상품 정보 버전 시퀀스(고객이 정보를 확인한 시점의 버전과 예약 신청하는 시점의 버전이 다르면 진행 불가)</t>
+  </si>
+  <si>
+    <t>고객 결제 기한 설정값</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PAYMENT_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>고객에게 이때까지 결제를 해야 한다고 통보하는 기한 설정값(예약일로부터 +N 분)</t>
+  </si>
+  <si>
+    <t>결제 확인 기한 설정값</t>
+  </si>
+  <si>
+    <t>PAYMENT_CHECK_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>관리자의 결제 확인 기한 설정값(예약일로 부터 +N 분, 고객 결제 기한 설정값보다 크거나 같음)</t>
+  </si>
+  <si>
+    <t>관리자 승인 기한 설정값</t>
+  </si>
+  <si>
+    <t>APPROVAL_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>관리자의 예약 승인 기한 설정값(예약일로부터 +N분, 결제 확인 기한 설정값보다 크거나 같음)</t>
+  </si>
+  <si>
+    <t>취소 가능 기한 설정값</t>
+  </si>
+  <si>
+    <t>CANCEL_DEADLINE_MINUTE</t>
+  </si>
+  <si>
+    <t>고객이 예약 취소 가능한 기한 설정값(대여 시작일로부터 -N분이며, 그 결과가 관리자 승인 기한보다 커야함)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY_UID</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 예약 정보 고유키</t>
+  </si>
+  <si>
     <t>HCP_PRODUCT_RESERVATION_INFO_UID</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>BIGINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>행 고유키</t>
-  </si>
-  <si>
-    <t>삭제여부</t>
-  </si>
-  <si>
-    <t>DEL_FRAG</t>
-  </si>
-  <si>
-    <t>BIT(1)</t>
-  </si>
-  <si>
-    <t>행 삭제여부</t>
-  </si>
-  <si>
-    <t>행 생성일시</t>
-  </si>
-  <si>
-    <t>ROW_CREATE_DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME(3)</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_INFO_UID</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_INFO 행 고유키</t>
-  </si>
-  <si>
-    <t>예약자 이름</t>
-  </si>
-  <si>
-    <t>CUSTOMER_NAME</t>
-  </si>
-  <si>
-    <t>VARCHAR(90)</t>
-  </si>
-  <si>
-    <t>예약자 전화번호</t>
-  </si>
-  <si>
-    <t>CUSTOMER_PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-  </si>
-  <si>
-    <t>예약자 전화번호(국가번호 + 전화번호)</t>
-  </si>
-  <si>
-    <t>대여 시작 일시</t>
-  </si>
-  <si>
-    <t>RENTAL_START_DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>대여가 시작되는 일시</t>
-  </si>
-  <si>
-    <t>대여 끝 일시</t>
-  </si>
-  <si>
-    <t>RENTAL_END_DATETIME</t>
-  </si>
-  <si>
-    <t>대여가 끝나는 일시 (회수 시간은 포함되지 않는 순수 서비스 이용 시간)</t>
-  </si>
-  <si>
-    <t>고객 예약 결제 기한</t>
-  </si>
-  <si>
-    <t>CUSTOMER_PAYMENT_DEADLINE_DATETIME</t>
-  </si>
-  <si>
-    <t>고객에게 이때까지 결제를 해야 한다고 통보한 기한</t>
-  </si>
-  <si>
-    <t>예약 결재 확인 기한</t>
-  </si>
-  <si>
-    <t>PAYMENT_CHECK_DEADLINE_DATETIME</t>
-  </si>
-  <si>
-    <t>예약 결재 확인 기한 (결재 기한 초과 처리.)</t>
-  </si>
-  <si>
-    <t>관리자 승인 기한</t>
-  </si>
-  <si>
-    <t>RESERVATION_APPROVAL_DEADLINE_DATETIME</t>
-  </si>
-  <si>
-    <t>관리자 승인 기한 (이 시점이 지났고, reservation_approval_datetime 가 충족되지 않았다면 취소로 간주)</t>
-  </si>
-  <si>
-    <t>예약 취소 가능 기한</t>
-  </si>
-  <si>
-    <t>RESERVATION_CANCEL_DEADLINE_DATETIME</t>
-  </si>
-  <si>
-    <t>상품명</t>
-  </si>
-  <si>
-    <t>PRODUCT_NAME</t>
-  </si>
-  <si>
-    <t>고객에게 보일 상품명(아래 부터는 예약 당시의 정보로, 영수증의 기능을 위한 정보 복제 컬럼)</t>
-  </si>
-  <si>
-    <t>상품 소개</t>
-  </si>
-  <si>
-    <t>PRODUCT_INTRO</t>
-  </si>
-  <si>
-    <t>VARCHAR(6000)</t>
-  </si>
-  <si>
-    <t>고객에게 보일 상품 소개</t>
-  </si>
-  <si>
-    <t>상품 대표 이미지 테이블 고유번호</t>
-  </si>
-  <si>
-    <t>FRONT_IMAGE_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_IMAGE 행 고유키</t>
-  </si>
-  <si>
-    <t>주소-국가</t>
-  </si>
-  <si>
-    <t>ADDRESS_COUNTRY</t>
-  </si>
-  <si>
-    <t>VARCHAR(60)</t>
-  </si>
-  <si>
-    <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 국가</t>
-  </si>
-  <si>
-    <t>주소-메인</t>
-  </si>
-  <si>
-    <t>ADDRESS_MAIN</t>
-  </si>
-  <si>
-    <t>VARCHAR(300)</t>
-  </si>
-  <si>
-    <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 국가와 상세 주소를 제외</t>
-  </si>
-  <si>
-    <t>주소- 상세</t>
-  </si>
-  <si>
-    <t>ADDRESS_DETAIL</t>
-  </si>
-  <si>
-    <t>상품이 위치한 주소(대여 가능 위치의 기준으로 사용됨) - 상세</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO_UID</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 재고 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_CATEGORY_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY 행 고유키</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 개별 설명</t>
-  </si>
-  <si>
-    <t>PRODUCT_DESC</t>
-  </si>
-  <si>
-    <t>VARCHAR(3000)</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 재고 이미지 테이블 고유키</t>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO 행 고유키</t>
+  </si>
+  <si>
+    <t>예약 상태 코드</t>
+  </si>
+  <si>
+    <t>STATE_CODE</t>
+  </si>
+  <si>
+    <t>TINYINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인, 8: 결제 환불 처리)</t>
+  </si>
+  <si>
+    <t>상태 변경 상세</t>
+  </si>
+  <si>
+    <t>STATE_CHANGE_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(600)</t>
+  </si>
+  <si>
+    <t>상태 변경 일시</t>
+  </si>
+  <si>
+    <t>STATE_CHANGE_DATETIME</t>
+  </si>
+  <si>
+    <t>상태 변경 기준 일시(행 생성일과 다르게 사건의 발생 일시 기준)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO_UID</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 재고 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
+  </si>
+  <si>
+    <t>다음 준비 예정일</t>
+  </si>
+  <si>
+    <t>NEXT_READY_DATETIME</t>
+  </si>
+  <si>
+    <t>다음 준비 예정일(예약 후 상품의 다음 고객의 대여까지 준비가 완료되는 일시, 이 값이 null 이라면 다음 예약이 불가)</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
+  </si>
+  <si>
+    <t>카테고리 이름</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>부모 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>PARENT_CATETORY_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_IMAGE</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_IMAGE_UID</t>
   </si>
   <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE 행 고유키</t>
-  </si>
-  <si>
-    <t>제품 대여 가능 최초 일시</t>
-  </si>
-  <si>
-    <t>FIRST_RENTABLE_DATETIME</t>
-  </si>
-  <si>
-    <t>제품 대여(손님에게 제공)가 가능한 최초 일시</t>
-  </si>
-  <si>
-    <t>제품 대여 마지막 일시</t>
-  </si>
-  <si>
-    <t>LAST_RENTABLE_DATETIME</t>
-  </si>
-  <si>
-    <t>제품 대여 마지막 일시 (이때가 대여 마지막 날)</t>
-  </si>
-  <si>
-    <t>예약 가능 설정</t>
-  </si>
-  <si>
-    <t>NOW_RESERVABLE</t>
-  </si>
-  <si>
-    <t>재고, 상품 상태와 상관 없이 현 시점 예약 가능한지에 대한 관리자의 설정</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_INFO</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_CATEGORY 행 고유키</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 이미지 고유키</t>
-  </si>
-  <si>
-    <t>고객에게 보일 상품명</t>
-  </si>
-  <si>
-    <t>상품 예약 가능 최초 일시</t>
-  </si>
-  <si>
-    <t>FIRST_RESERVABLE_DATETIME</t>
-  </si>
-  <si>
-    <t>상품 예약이 가능한 최초 일시(콘서트 티켓 예매와 같은 서비스를 가정, 예약 러시 처리가 필요)</t>
-  </si>
-  <si>
-    <t>단위 예약 시간(분)</t>
-  </si>
-  <si>
-    <t>RESERVATION_UNIT_MINUTE</t>
-  </si>
-  <si>
-    <t>예약 추가 할 수 있는 최소 시간 단위 (분)</t>
-  </si>
-  <si>
-    <t>최소 예약 횟수</t>
-  </si>
-  <si>
-    <t>MINIMUM_RESERVATION_UNIT_COUNT</t>
-  </si>
-  <si>
-    <t>INT UNSIGNED</t>
-  </si>
-  <si>
-    <t>단위 예약 시간을 대여일 기준에서 최소 몇번 추가 해야 하는지</t>
-  </si>
-  <si>
-    <t>최대 예약 횟수</t>
-  </si>
-  <si>
-    <t>MAXIMUM_RESERVATION_UNIT_COUNT</t>
-  </si>
-  <si>
-    <t>단위 예약 시간을 대여일 기준에서 최대 몇번 추가 가능한지 (Null 이라면 제한 없음)</t>
-  </si>
-  <si>
-    <t>예약 단가</t>
-  </si>
-  <si>
-    <t>RESERVATION_UNIT_PRICE</t>
-  </si>
-  <si>
-    <t>DECIMAL(15, 2) UNSIGNED</t>
-  </si>
-  <si>
-    <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>
-  </si>
-  <si>
-    <t>예약 단가 통화 코드</t>
-  </si>
-  <si>
-    <t>RESERVATION_UNIT_PRICE_CURRENCY_CODE</t>
-  </si>
-  <si>
-    <t>CHAR(3)</t>
-  </si>
-  <si>
-    <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
-  </si>
-  <si>
-    <t>예약 상품 버전 시퀀스</t>
-  </si>
-  <si>
-    <t>VERSION_SEQ</t>
-  </si>
-  <si>
-    <t>예약 상품 정보 버전 시퀀스(고객이 정보를 확인한 시점의 버전과 예약 신청하는 시점의 버전이 다르면 진행 불가)</t>
-  </si>
-  <si>
-    <t>고객 결제 기한 설정값</t>
-  </si>
-  <si>
-    <t>CUSTOMER_PAYMENT_DEADLINE_MINUTE</t>
-  </si>
-  <si>
-    <t>고객에게 이때까지 결제를 해야 한다고 통보하는 기한 설정값(예약일로부터 +N 분)</t>
-  </si>
-  <si>
-    <t>결제 확인 기한 설정값</t>
-  </si>
-  <si>
-    <t>PAYMENT_CHECK_DEADLINE_MINUTE</t>
-  </si>
-  <si>
-    <t>관리자의 결제 확인 기한 설정값(예약일로 부터 +N 분, 고객 결제 기한 설정값보다 크거나 같음)</t>
-  </si>
-  <si>
-    <t>관리자 승인 기한 설정값</t>
-  </si>
-  <si>
-    <t>APPROVAL_DEADLINE_MINUTE</t>
-  </si>
-  <si>
-    <t>관리자의 예약 승인 기한 설정값(예약일로부터 +N분, 결제 확인 기한 설정값보다 크거나 같음)</t>
-  </si>
-  <si>
-    <t>취소 가능 기한 설정값</t>
-  </si>
-  <si>
-    <t>CANCEL_DEADLINE_MINUTE</t>
-  </si>
-  <si>
-    <t>고객이 예약 취소 가능한 기한 설정값(대여 시작일로부터 -N분이며, 그 결과가 관리자 승인 기한보다 커야함)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_STATE_CHANGE_HISTORY_UID</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 예약 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO 행 고유키</t>
-  </si>
-  <si>
-    <t>예약 상태 코드</t>
-  </si>
-  <si>
-    <t>STATE_CODE</t>
-  </si>
-  <si>
-    <t>TINYINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인, 8: 결제 환불 처리)</t>
-  </si>
-  <si>
-    <t>상태 변경 상세</t>
-  </si>
-  <si>
-    <t>STATE_CHANGE_DESC</t>
-  </si>
-  <si>
-    <t>VARCHAR(600)</t>
-  </si>
-  <si>
-    <t>상태 변경 일시</t>
-  </si>
-  <si>
-    <t>STATE_CHANGE_DATETIME</t>
-  </si>
-  <si>
-    <t>상태 변경 기준 일시(행 생성일과 다르게 사건의 발생 일시 기준)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO_UID</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 재고 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
-  </si>
-  <si>
-    <t>다음 준비 예정일</t>
-  </si>
-  <si>
-    <t>NEXT_READY_DATETIME</t>
-  </si>
-  <si>
-    <t>다음 준비 예정일(예약 후 상품의 다음 고객의 대여까지 준비가 완료되는 일시, 이 값이 null 이라면 다음 예약이 불가)</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
-  </si>
-  <si>
-    <t>카테고리 이름</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME</t>
-  </si>
-  <si>
-    <t>부모 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>PARENT_CATETORY_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_IMAGE</t>
-  </si>
-  <si>
     <t>상품 이미지 Full URL</t>
   </si>
   <si>
@@ -521,7 +530,7 @@
     <t>HCP_PAYMENT</t>
   </si>
   <si>
-    <t>HCP_HCP_PAYMENT_UID</t>
+    <t>HCP_PAYMENT_UID</t>
   </si>
   <si>
     <t>결제 타입</t>
@@ -663,6 +672,9 @@
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_INFO</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_RESERVATION_PAYMENT_INFO_UID</t>
   </si>
   <si>
     <t>대여 가능 상품 예약 결제 정보 고유키</t>
@@ -1953,7 +1965,7 @@
         <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1968,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -1976,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
@@ -2020,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -2132,10 +2144,10 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2150,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -2158,10 +2170,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2176,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -2184,16 +2196,16 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -2202,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
@@ -2210,16 +2222,16 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
@@ -2228,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
@@ -2236,16 +2248,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2254,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -2262,16 +2274,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2280,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -2314,10 +2326,10 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2332,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -2340,10 +2352,10 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2358,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -2366,10 +2378,10 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2384,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -2392,10 +2404,10 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2410,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58">
@@ -2418,10 +2430,10 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2436,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -2446,7 +2458,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -2483,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2558,10 +2570,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2576,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -2584,16 +2596,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2602,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
@@ -2610,25 +2622,25 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
         <v>145</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -2636,10 +2648,10 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2654,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69">
@@ -2664,7 +2676,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -2701,7 +2713,7 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -2776,7 +2788,7 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
         <v>75</v>
@@ -2794,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76">
@@ -2802,7 +2814,7 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2820,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -2828,10 +2840,10 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -2846,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
@@ -2856,7 +2868,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80">
@@ -2893,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -2968,10 +2980,10 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -2986,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85">
@@ -2994,10 +3006,10 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3012,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86">
@@ -3022,7 +3034,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
@@ -3059,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3160,16 +3172,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -3178,7 +3190,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
@@ -3188,7 +3200,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96">
@@ -3300,10 +3312,10 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3318,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
@@ -3326,10 +3338,10 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3344,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102">
@@ -3354,7 +3366,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104">
@@ -3466,7 +3478,7 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
         <v>75</v>
@@ -3484,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
@@ -3492,16 +3504,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C109" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -3510,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
@@ -3520,7 +3532,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112">
@@ -3557,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -3632,16 +3644,16 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -3650,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117">
@@ -3658,16 +3670,16 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -3676,7 +3688,7 @@
         <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118">
@@ -3684,16 +3696,16 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -3702,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119">
@@ -3710,10 +3722,10 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -3728,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120">
@@ -3736,10 +3748,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -3754,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121">
@@ -3764,7 +3776,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123">
@@ -3801,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -3876,10 +3888,10 @@
         <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -3902,16 +3914,16 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -3920,7 +3932,7 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129">
@@ -3928,16 +3940,16 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3946,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130">
@@ -3954,16 +3966,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3972,7 +3984,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131">
@@ -3982,7 +3994,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133">
@@ -4019,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -4094,10 +4106,10 @@
         <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4120,16 +4132,16 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -4138,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139">
@@ -4146,16 +4158,16 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4164,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140">
@@ -4172,16 +4184,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C140" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -4190,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141">
@@ -4200,7 +4212,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143">
@@ -4237,7 +4249,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4312,10 +4324,10 @@
         <v>23</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -4338,16 +4350,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -4356,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149">
@@ -4366,7 +4378,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151">
@@ -4403,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -4478,10 +4490,10 @@
         <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -4496,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156">
@@ -4504,16 +4516,16 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -4522,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157">
@@ -4530,16 +4542,16 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F157" t="s">
         <v>26</v>
@@ -4548,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="158">
@@ -4556,10 +4568,10 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -4574,7 +4586,7 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159">
@@ -4584,7 +4596,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161">
@@ -4621,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -4696,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
@@ -4714,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
@@ -4722,10 +4734,10 @@
         <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -4740,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167">

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -356,7 +356,7 @@
     <t>RESERVATION_UNIT_PRICE</t>
   </si>
   <si>
-    <t>DECIMAL(15, 2) UNSIGNED</t>
+    <t>DECIMAL(15, 2)</t>
   </si>
   <si>
     <t>단위 예약 시간에 대한 가격 (예약 시간 / 단위 예약 시간 * 예약 단가 = 예약 최종가)</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="224">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -443,7 +443,7 @@
     <t>TINYINT UNSIGNED</t>
   </si>
   <si>
-    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 예약 취소 거부, 6: 사용자 조기반납신고, 7: 관리자 조기반납 확인, 8: 결제 환불 처리)</t>
+    <t>예약 상태 코드(0 : 관리자 결제 확인, 1 : 관리자 예약 승인, 2 : 관리자 예약 거부, 3 : 사용자 예약 취소 신청, 4 : 관리자 예약 취소 승인, 5 : 관리자 예약 취소 거부, 6: 관리자 결제 환불 처리)</t>
   </si>
   <si>
     <t>상태 변경 상세</t>
@@ -476,15 +476,6 @@
     <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
   </si>
   <si>
-    <t>다음 준비 예정일</t>
-  </si>
-  <si>
-    <t>NEXT_READY_DATETIME</t>
-  </si>
-  <si>
-    <t>다음 준비 예정일(예약 후 상품의 다음 고객의 대여까지 준비가 완료되는 일시, 이 값이 null 이라면 다음 예약이 불가)</t>
-  </si>
-  <si>
     <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
   </si>
   <si>
@@ -678,6 +669,18 @@
   </si>
   <si>
     <t>대여 가능 상품 예약 결제 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_STATE_CHANGE_HISTORY</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_STATE_CHANGE_HISTORY_UID</t>
+  </si>
+  <si>
+    <t>개별 상품 예약 정보 고유키</t>
+  </si>
+  <si>
+    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자  반납 확인, 2 : 관리자 다음 예약 준비 완료, 3 : 관리자 연체 상태 변경, 4 : 관리자 손망실 상태 변경)</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H176"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2839,79 +2842,79 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -2920,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -2928,16 +2931,16 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -2946,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2954,16 +2957,16 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -2972,112 +2975,112 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
         <v>159</v>
       </c>
-      <c r="C84" t="s">
-        <v>160</v>
-      </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -3086,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -3094,16 +3097,16 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -3112,24 +3115,24 @@
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -3138,24 +3141,24 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -3164,86 +3167,86 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="B93" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" t="s">
-        <v>167</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
@@ -3252,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -3260,16 +3263,16 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -3278,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -3286,16 +3289,16 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3304,24 +3307,24 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3330,86 +3333,86 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -3418,7 +3421,7 @@
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -3426,16 +3429,16 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -3444,24 +3447,24 @@
         <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -3470,24 +3473,24 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -3496,86 +3499,86 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>12</v>
       </c>
-      <c r="B109" t="s">
-        <v>165</v>
-      </c>
-      <c r="C109" t="s">
-        <v>166</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
-        <v>167</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -3584,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -3592,16 +3595,16 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -3610,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -3618,16 +3621,16 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -3636,7 +3639,7 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116">
@@ -3653,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -3662,7 +3665,7 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117">
@@ -3670,25 +3673,25 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" t="s">
         <v>177</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
         <v>178</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>115</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="118">
@@ -3705,10 +3708,10 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -3731,10 +3734,10 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -3747,79 +3750,79 @@
       <c r="A120" t="s">
         <v>12</v>
       </c>
-      <c r="B120" t="s">
-        <v>185</v>
-      </c>
-      <c r="C120" t="s">
-        <v>186</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -3828,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -3836,16 +3839,16 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -3854,24 +3857,24 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -3880,25 +3883,25 @@
         <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" t="s">
+        <v>189</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
         <v>190</v>
       </c>
-      <c r="C127" t="s">
-        <v>173</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
       <c r="F127" t="s">
         <v>14</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128">
@@ -3949,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -3965,79 +3968,79 @@
       <c r="A130" t="s">
         <v>12</v>
       </c>
-      <c r="B130" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" t="s">
-        <v>198</v>
-      </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
-        <v>193</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D133" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -4046,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -4054,16 +4057,16 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -4072,24 +4075,24 @@
         <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -4098,25 +4101,25 @@
         <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" t="s">
+        <v>189</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
         <v>190</v>
       </c>
-      <c r="C137" t="s">
-        <v>173</v>
-      </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
-      </c>
       <c r="F137" t="s">
         <v>14</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138">
@@ -4132,10 +4135,10 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -4158,16 +4161,16 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -4183,79 +4186,79 @@
       <c r="A140" t="s">
         <v>12</v>
       </c>
-      <c r="B140" t="s">
-        <v>197</v>
-      </c>
-      <c r="C140" t="s">
-        <v>198</v>
-      </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>193</v>
-      </c>
-      <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
@@ -4264,7 +4267,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -4272,16 +4275,16 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -4290,24 +4293,24 @@
         <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -4316,24 +4319,24 @@
         <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -4342,86 +4345,86 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
         <v>12</v>
       </c>
-      <c r="B148" t="s">
-        <v>205</v>
-      </c>
-      <c r="C148" t="s">
-        <v>206</v>
-      </c>
-      <c r="D148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" t="s">
-        <v>207</v>
-      </c>
-      <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -4430,7 +4433,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
@@ -4438,16 +4441,16 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -4456,24 +4459,24 @@
         <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -4482,24 +4485,24 @@
         <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
+        <v>209</v>
+      </c>
+      <c r="C155" t="s">
         <v>210</v>
       </c>
-      <c r="C155" t="s">
-        <v>173</v>
-      </c>
       <c r="D155" t="s">
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -4508,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156">
@@ -4516,25 +4519,25 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156" t="s">
         <v>212</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
         <v>213</v>
-      </c>
-      <c r="D156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" t="s">
-        <v>115</v>
-      </c>
-      <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="157">
@@ -4551,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s">
         <v>26</v>
@@ -4567,79 +4570,79 @@
       <c r="A158" t="s">
         <v>12</v>
       </c>
-      <c r="B158" t="s">
-        <v>217</v>
-      </c>
-      <c r="C158" t="s">
-        <v>218</v>
-      </c>
-      <c r="D158" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" t="s">
-        <v>22</v>
-      </c>
-      <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
-      <c r="H158" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="D161" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -4648,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -4656,16 +4659,16 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
@@ -4674,24 +4677,24 @@
         <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -4700,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
@@ -4708,10 +4711,10 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -4726,37 +4729,229 @@
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" t="s">
-        <v>190</v>
-      </c>
-      <c r="C166" t="s">
-        <v>173</v>
-      </c>
-      <c r="D166" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
-      <c r="H166" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>221</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" t="s">
+        <v>222</v>
+      </c>
+      <c r="C172" t="s">
+        <v>152</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" t="s">
+        <v>142</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>143</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>145</v>
+      </c>
+      <c r="C174" t="s">
+        <v>146</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>147</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>148</v>
+      </c>
+      <c r="C175" t="s">
+        <v>149</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>37</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -248,6 +248,15 @@
     <t>HCP_RENTABLE_PRODUCT_STOCK_CATEGORY 행 고유키</t>
   </si>
   <si>
+    <t>대여 가능 상품 재고 이미지 테이블 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE_UID</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE 행 고유키</t>
+  </si>
+  <si>
     <t>대여 가능 상품 개별 설명</t>
   </si>
   <si>
@@ -257,15 +266,6 @@
     <t>VARCHAR(3000)</t>
   </si>
   <si>
-    <t>대여 가능 상품 재고 이미지 테이블 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE_UID</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_STOCK_IMAGE 행 고유키</t>
-  </si>
-  <si>
     <t>제품 대여 가능 최초 일시</t>
   </si>
   <si>
@@ -296,6 +296,15 @@
     <t>HCP_RENTABLE_PRODUCT_INFO</t>
   </si>
   <si>
+    <t>예약 상품 버전 시퀀스</t>
+  </si>
+  <si>
+    <t>VERSION_SEQ</t>
+  </si>
+  <si>
+    <t>예약 상품 정보 버전 시퀀스(고객이 정보를 확인한 시점의 버전과 예약 신청하는 시점의 버전이 다르면 진행 불가)</t>
+  </si>
+  <si>
     <t>대여 가능 상품 카테고리 고유키</t>
   </si>
   <si>
@@ -374,15 +383,6 @@
     <t>단위 예약 시간에 대한 가격 통화 코드(IOS 4217, ex : KRW, USD, EUR...)</t>
   </si>
   <si>
-    <t>예약 상품 버전 시퀀스</t>
-  </si>
-  <si>
-    <t>VERSION_SEQ</t>
-  </si>
-  <si>
-    <t>예약 상품 정보 버전 시퀀스(고객이 정보를 확인한 시점의 버전과 예약 신청하는 시점의 버전이 다르면 진행 불가)</t>
-  </si>
-  <si>
     <t>고객 결제 기한 설정값</t>
   </si>
   <si>
@@ -479,16 +479,16 @@
     <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
   </si>
   <si>
+    <t>부모 카테고리 고유키</t>
+  </si>
+  <si>
+    <t>PARENT_CATETORY_UID</t>
+  </si>
+  <si>
     <t>카테고리 이름</t>
   </si>
   <si>
     <t>CATEGORY_NAME</t>
-  </si>
-  <si>
-    <t>부모 카테고리 고유키</t>
-  </si>
-  <si>
-    <t>PARENT_CATETORY_UID</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_IMAGE</t>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
@@ -1704,16 +1704,16 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -1721,10 +1721,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1733,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1747,16 +1747,16 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -1773,10 +1773,10 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1785,39 +1785,39 @@
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -1977,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -1994,7 +1994,7 @@
         <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2009,33 +2009,33 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
@@ -2043,16 +2043,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -2087,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
@@ -2095,16 +2095,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2113,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
@@ -2121,10 +2121,10 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2139,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -2147,16 +2147,16 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2165,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -2182,7 +2182,7 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2208,16 +2208,16 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
         <v>108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50">
@@ -2225,19 +2225,19 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
         <v>110</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>111</v>
       </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2260,16 +2260,16 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
         <v>115</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -2277,25 +2277,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>118</v>
       </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
         <v>119</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -2303,16 +2303,16 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
@@ -2329,16 +2329,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2347,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
@@ -2882,7 +2882,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
         <v>156</v>
@@ -2966,10 +2966,10 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
         <v>158</v>
@@ -2992,10 +2992,10 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -3286,19 +3286,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
         <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -3307,24 +3307,24 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
         <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -3333,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
@@ -3380,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3656,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -3682,7 +3682,7 @@
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -4502,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -4528,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="224">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -455,15 +455,6 @@
     <t>VARCHAR(600)</t>
   </si>
   <si>
-    <t>상태 변경 일시</t>
-  </si>
-  <si>
-    <t>STATE_CHANGE_DATETIME</t>
-  </si>
-  <si>
-    <t>상태 변경 기준 일시(행 생성일과 다르게 사건의 발생 일시 기준)</t>
-  </si>
-  <si>
     <t>HCP_RENTABLE_PRODUCT_STOCK_RESERVATION_INFO</t>
   </si>
   <si>
@@ -476,6 +467,15 @@
     <t>HCP_RENTABLE_PRODUCT_STOCK_INFO 행 고유키</t>
   </si>
   <si>
+    <t>개별 상품 준비 완료일</t>
+  </si>
+  <si>
+    <t>PRODUCT_READY_DATETIME</t>
+  </si>
+  <si>
+    <t>개별 상품이 대여 반납 이후 준비가 완료된 시간(미리 설정도 가능, 히스토리 테이블에 반납 확인 내역이 없다면 준비 완료 상태로 판별되지 않습니다.)</t>
+  </si>
+  <si>
     <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>개별 상품 예약 정보 고유키</t>
   </si>
   <si>
-    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자  반납 확인, 2 : 관리자 다음 예약 준비 완료, 3 : 관리자 연체 상태 변경, 4 : 관리자 손망실 상태 변경)</t>
+    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자  반납 확인, 2 : 관리자 연체 상태 변경, 3 : 관리자 손망실 상태 변경)</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H175"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2650,79 +2650,79 @@
       <c r="A68" t="s">
         <v>12</v>
       </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2731,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -2739,16 +2739,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,24 +2757,24 @@
         <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2783,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75">
@@ -2791,10 +2791,10 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -2809,33 +2809,33 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
@@ -3455,7 +3455,7 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
         <v>75</v>
@@ -3473,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
@@ -4854,7 +4854,7 @@
         <v>222</v>
       </c>
       <c r="C172" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
@@ -4926,32 +4926,6 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175" t="s">
-        <v>148</v>
-      </c>
-      <c r="C175" t="s">
-        <v>149</v>
-      </c>
-      <c r="D175" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" t="s">
-        <v>37</v>
-      </c>
-      <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
-      <c r="H175" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
         <v>12</v>
       </c>
     </row>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -473,7 +473,7 @@
     <t>PRODUCT_READY_DATETIME</t>
   </si>
   <si>
-    <t>개별 상품이 대여 반납 이후 준비가 완료된 시간(미리 설정도 가능, 히스토리 테이블에 반납 확인 내역이 없다면 준비 완료 상태로 판별되지 않습니다.)</t>
+    <t>개별 상품이 대여 반납 이후 준비가 완료된 시간(미리 설정도 가능, 히스토리 테이블 내역보다 우선됩니다.)</t>
   </si>
   <si>
     <t>HCP_RENTABLE_PRODUCT_CATEGORY</t>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -680,7 +680,7 @@
     <t>개별 상품 예약 정보 고유키</t>
   </si>
   <si>
-    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자  반납 확인, 2 : 관리자 연체 상태 변경, 3 : 관리자 손망실 상태 변경)</t>
+    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자  반납 확인, 2 : 관리자 연체 상태 변경, 3 : 관리자 손망실 상태 변경, 4: 관리자 반납 확인 취소, 5 : 관리자 연체 상태 변경 취소, 6 : 관리자 손망실 상태 변경 취소)</t>
   </si>
 </sst>
 </file>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -680,7 +680,7 @@
     <t>개별 상품 예약 정보 고유키</t>
   </si>
   <si>
-    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자  반납 확인, 2 : 관리자 연체 상태 변경, 3 : 관리자 손망실 상태 변경, 4: 관리자 반납 확인 취소, 5 : 관리자 연체 상태 변경 취소, 6 : 관리자 손망실 상태 변경 취소)</t>
+    <t>예약 상태 코드(0 : 사용자 조기 반납 신고, 1 : 관리자 반납 확인, 2 : 관리자 연체 상태 변경, 3 : 관리자 손망실 상태 변경, 4: 관리자 반납 확인 취소, 5 : 관리자 연체 상태 변경 취소, 6 : 관리자 손망실 상태 변경 취소, 7 : 사용자 조기 반납 신고 취소)</t>
   </si>
 </sst>
 </file>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -3301,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>

--- a/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
+++ b/module-service-rental-reservation/external_files/db/RentalReservation.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="225">
   <si>
     <t>HCP_RENTABLE_PRODUCT_RESERVATION_INFO</t>
   </si>
@@ -50,43 +50,46 @@
     <t/>
   </si>
   <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>행 고유키</t>
+  </si>
+  <si>
+    <t>삭제여부</t>
+  </si>
+  <si>
+    <t>DEL_FRAG</t>
+  </si>
+  <si>
+    <t>BIT(1)</t>
+  </si>
+  <si>
+    <t>행 삭제여부</t>
+  </si>
+  <si>
+    <t>행 생성일시</t>
+  </si>
+  <si>
+    <t>ROW_CREATE_DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME(3)</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>대여 가능 상품 정보 고유키</t>
+  </si>
+  <si>
+    <t>HCP_RENTABLE_PRODUCT_INFO_UID</t>
+  </si>
+  <si>
     <t>BIGINT UNSIGNED</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>행 고유키</t>
-  </si>
-  <si>
-    <t>삭제여부</t>
-  </si>
-  <si>
-    <t>DEL_FRAG</t>
-  </si>
-  <si>
-    <t>BIT(1)</t>
-  </si>
-  <si>
-    <t>행 삭제여부</t>
-  </si>
-  <si>
-    <t>행 생성일시</t>
-  </si>
-  <si>
-    <t>ROW_CREATE_DATETIME</t>
-  </si>
-  <si>
-    <t>DATETIME(3)</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>대여 가능 상품 정보 고유키</t>
-  </si>
-  <si>
-    <t>HCP_RENTABLE_PRODUCT_INFO_UID</t>
   </si>
   <si>
     <t>Y</t>
@@ -1174,16 +1177,16 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1191,25 +1194,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1217,16 +1220,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1235,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1243,16 +1246,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1261,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1269,16 +1272,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1287,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1295,16 +1298,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1313,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1321,16 +1324,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1339,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1347,16 +1350,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1365,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1373,25 +1376,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1399,16 +1402,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1417,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -1425,16 +1428,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1443,7 +1446,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1451,25 +1454,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1477,16 +1480,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1495,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -1503,16 +1506,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1521,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -1529,16 +1532,16 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1547,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -1557,7 +1560,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -1594,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1669,25 +1672,25 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -1695,25 +1698,25 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -1730,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1739,7 +1742,7 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1747,25 +1750,25 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -1773,16 +1776,16 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -1791,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -1799,25 +1802,25 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -1825,10 +1828,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1843,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -1853,7 +1856,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -1965,16 +1968,16 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1983,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -1991,25 +1994,25 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -2017,25 +2020,25 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -2043,16 +2046,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -2061,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2072,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -2087,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -2095,16 +2098,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2113,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -2121,16 +2124,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2139,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
@@ -2147,16 +2150,16 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2165,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
@@ -2173,16 +2176,16 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2191,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -2199,16 +2202,16 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -2217,7 +2220,7 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
@@ -2225,16 +2228,16 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -2243,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -2251,25 +2254,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -2277,16 +2280,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2295,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -2303,16 +2306,16 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -2321,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -2329,10 +2332,10 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2347,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
@@ -2355,16 +2358,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -2373,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -2381,16 +2384,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -2399,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -2407,16 +2410,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2425,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -2433,16 +2436,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2451,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -2461,7 +2464,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
@@ -2498,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2573,16 +2576,16 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2591,7 +2594,7 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -2599,16 +2602,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2617,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -2625,25 +2628,25 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
         <v>146</v>
-      </c>
-      <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68">
@@ -2653,7 +2656,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70">
@@ -2690,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -2765,16 +2768,16 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2783,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
@@ -2791,7 +2794,7 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -2800,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2809,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
@@ -2817,25 +2820,25 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77">
@@ -2845,7 +2848,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79">
@@ -2882,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -2957,25 +2960,25 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
         <v>157</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="84">
@@ -2983,25 +2986,25 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
         <v>159</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="85">
@@ -3011,7 +3014,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87">
@@ -3048,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3132,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -3141,7 +3144,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -3149,25 +3152,25 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>165</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
         <v>163</v>
-      </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>164</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="93">
@@ -3177,7 +3180,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95">
@@ -3214,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3289,25 +3292,25 @@
         <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100">
@@ -3315,25 +3318,25 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
         <v>159</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="101">
@@ -3343,7 +3346,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103">
@@ -3380,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3455,16 +3458,16 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -3473,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
@@ -3481,25 +3484,25 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>165</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
         <v>163</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
-        <v>164</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="109">
@@ -3509,7 +3512,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
@@ -3546,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -3621,16 +3624,16 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -3639,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116">
@@ -3647,25 +3650,25 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
         <v>175</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>118</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="117">
@@ -3673,16 +3676,16 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -3691,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118">
@@ -3699,10 +3702,10 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -3711,13 +3714,13 @@
         <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119">
@@ -3725,10 +3728,10 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -3743,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120">
@@ -3753,7 +3756,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122">
@@ -3790,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -3865,16 +3868,16 @@
         <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -3891,25 +3894,25 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C127" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
         <v>189</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>190</v>
-      </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="128">
@@ -3917,25 +3920,25 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
         <v>192</v>
-      </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" t="s">
-        <v>193</v>
-      </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="129">
@@ -3943,25 +3946,25 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>191</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
         <v>195</v>
-      </c>
-      <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" t="s">
-        <v>190</v>
-      </c>
-      <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="130">
@@ -3971,7 +3974,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132">
@@ -4008,7 +4011,7 @@
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -4083,16 +4086,16 @@
         <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -4109,25 +4112,25 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>191</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
         <v>189</v>
-      </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
-        <v>190</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="138">
@@ -4135,16 +4138,16 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C138" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -4153,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139">
@@ -4161,25 +4164,25 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>191</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
         <v>195</v>
-      </c>
-      <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
-        <v>190</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="140">
@@ -4189,7 +4192,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142">
@@ -4226,7 +4229,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -4301,16 +4304,16 @@
         <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -4327,25 +4330,25 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
+        <v>204</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>205</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
         <v>203</v>
-      </c>
-      <c r="D147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" t="s">
-        <v>204</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="148">
@@ -4355,7 +4358,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150">
@@ -4392,7 +4395,7 @@
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -4467,16 +4470,16 @@
         <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -4485,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155">
@@ -4493,25 +4496,25 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
         <v>210</v>
-      </c>
-      <c r="D155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
-        <v>118</v>
-      </c>
-      <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="156">
@@ -4519,25 +4522,25 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G156" t="s">
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157">
@@ -4545,10 +4548,10 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -4557,13 +4560,13 @@
         <v>22</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158">
@@ -4573,7 +4576,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160">
@@ -4610,7 +4613,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -4685,7 +4688,7 @@
         <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -4694,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -4703,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165">
@@ -4711,16 +4714,16 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -4729,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166">
@@ -4739,7 +4742,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168">
@@ -4776,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -4851,16 +4854,16 @@
         <v>23</v>
       </c>
       <c r="B172" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C172" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -4877,16 +4880,16 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -4895,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174">
@@ -4903,25 +4906,25 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C174" t="s">
+        <v>147</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>148</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" t="s">
         <v>146</v>
-      </c>
-      <c r="D174" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" t="s">
-        <v>147</v>
-      </c>
-      <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="175">
